--- a/raw_data/20200818_saline/20200818_Sensor2_Test_63.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_63.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF18A6-93D8-4B87-AAE9-D0E20344D47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>56173.437973</v>
       </c>
@@ -481,163 +897,163 @@
         <v>15.603733</v>
       </c>
       <c r="C2" s="1">
-        <v>1247.040000</v>
+        <v>1247.04</v>
       </c>
       <c r="D2" s="1">
-        <v>-277.929000</v>
+        <v>-277.92899999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>56183.487945</v>
+        <v>56183.487945000001</v>
       </c>
       <c r="G2" s="1">
         <v>15.606524</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.270000</v>
+        <v>1268.27</v>
       </c>
       <c r="I2" s="1">
-        <v>-243.484000</v>
+        <v>-243.48400000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>56193.628617</v>
+        <v>56193.628617000002</v>
       </c>
       <c r="L2" s="1">
-        <v>15.609341</v>
+        <v>15.609341000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1301.410000</v>
+        <v>1301.4100000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-192.216000</v>
+        <v>-192.21600000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>56203.811021</v>
+        <v>56203.811021000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.612170</v>
+        <v>15.612170000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1313.720000</v>
+        <v>1313.72</v>
       </c>
       <c r="S2" s="1">
-        <v>-177.747000</v>
+        <v>-177.74700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>56214.421936</v>
+        <v>56214.421935999999</v>
       </c>
       <c r="V2" s="1">
         <v>15.615117</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.030000</v>
+        <v>1328.03</v>
       </c>
       <c r="X2" s="1">
-        <v>-167.209000</v>
+        <v>-167.209</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>56224.832465</v>
       </c>
       <c r="AA2" s="1">
-        <v>15.618009</v>
+        <v>15.618009000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.690000</v>
+        <v>1346.69</v>
       </c>
       <c r="AC2" s="1">
-        <v>-167.876000</v>
+        <v>-167.876</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>56235.421059</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.620950</v>
+        <v>15.620950000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.584000</v>
+        <v>-178.584</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>56245.883636</v>
+        <v>56245.883635999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>15.623857</v>
+        <v>15.623856999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1382.180000</v>
+        <v>1382.18</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.206000</v>
+        <v>-209.20599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>56256.161735</v>
+        <v>56256.161735000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.626712</v>
+        <v>15.626711999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1404.710000</v>
+        <v>1404.71</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.296000</v>
+        <v>-253.29599999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>56267.068294</v>
+        <v>56267.068293999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>15.629741</v>
+        <v>15.629740999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.196000</v>
+        <v>-313.19600000000003</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>56278.171706</v>
+        <v>56278.171706000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>15.632825</v>
       </c>
       <c r="BA2" s="1">
-        <v>1450.030000</v>
+        <v>1450.03</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.019000</v>
+        <v>-365.01900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>56289.083691</v>
@@ -646,120 +1062,120 @@
         <v>15.635857</v>
       </c>
       <c r="BF2" s="1">
-        <v>1537.470000</v>
+        <v>1537.47</v>
       </c>
       <c r="BG2" s="1">
-        <v>-611.153000</v>
+        <v>-611.15300000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>56300.102318</v>
+        <v>56300.102317999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>15.638917</v>
+        <v>15.638916999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1694.590000</v>
+        <v>1694.59</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1050.580000</v>
+        <v>-1050.58</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>56311.866429</v>
+        <v>56311.866429000002</v>
       </c>
       <c r="BO2" s="1">
         <v>15.642185</v>
       </c>
       <c r="BP2" s="1">
-        <v>1992.620000</v>
+        <v>1992.62</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1808.790000</v>
+        <v>-1808.79</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>56322.618739</v>
+        <v>56322.618738999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.645172</v>
+        <v>15.645172000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2381.970000</v>
+        <v>2381.9699999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2681.060000</v>
+        <v>-2681.06</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>56333.786128</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.648274</v>
+        <v>15.648274000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2869.850000</v>
+        <v>2869.85</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3626.550000</v>
+        <v>-3626.55</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>56344.712002</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.651309</v>
+        <v>15.651308999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.660000</v>
+        <v>4280.66</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5882.310000</v>
+        <v>-5882.31</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>56173.795093</v>
+        <v>56173.795093000001</v>
       </c>
       <c r="B3" s="1">
-        <v>15.603832</v>
+        <v>15.603832000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-278.087000</v>
+        <v>-278.08699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>56183.913974</v>
+        <v>56183.913974000003</v>
       </c>
       <c r="G3" s="1">
         <v>15.606643</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.330000</v>
+        <v>1268.33</v>
       </c>
       <c r="I3" s="1">
-        <v>-242.984000</v>
+        <v>-242.98400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>56194.059641</v>
@@ -768,315 +1184,315 @@
         <v>15.609461</v>
       </c>
       <c r="M3" s="1">
-        <v>1301.440000</v>
+        <v>1301.44</v>
       </c>
       <c r="N3" s="1">
-        <v>-192.417000</v>
+        <v>-192.417</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>56204.220716</v>
+        <v>56204.220716000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.612284</v>
+        <v>15.612284000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1313.710000</v>
+        <v>1313.71</v>
       </c>
       <c r="S3" s="1">
-        <v>-177.722000</v>
+        <v>-177.72200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>56214.768642</v>
+        <v>56214.768642000003</v>
       </c>
       <c r="V3" s="1">
         <v>15.615214</v>
       </c>
       <c r="W3" s="1">
-        <v>1327.680000</v>
+        <v>1327.68</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.231000</v>
+        <v>-167.23099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>56225.198977</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.618111</v>
+        <v>15.618111000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC3" s="1">
-        <v>-167.767000</v>
+        <v>-167.767</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>56235.803443</v>
+        <v>56235.803442999997</v>
       </c>
       <c r="AF3" s="1">
         <v>15.621057</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.460000</v>
+        <v>1360.46</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.661000</v>
+        <v>-178.661</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>56246.375704</v>
+        <v>56246.375703999998</v>
       </c>
       <c r="AK3" s="1">
         <v>15.623993</v>
       </c>
       <c r="AL3" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.189000</v>
+        <v>-209.18899999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>56256.895318</v>
+        <v>56256.895318000003</v>
       </c>
       <c r="AP3" s="1">
         <v>15.626915</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1404.710000</v>
+        <v>1404.71</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.334000</v>
+        <v>-253.334</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>56267.475976</v>
+        <v>56267.475976000002</v>
       </c>
       <c r="AU3" s="1">
         <v>15.629854</v>
       </c>
       <c r="AV3" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.192000</v>
+        <v>-313.19200000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>56278.533823</v>
+        <v>56278.533822999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.632926</v>
+        <v>15.632925999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>56289.446764</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.635957</v>
+        <v>15.635956999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1537.460000</v>
+        <v>1537.46</v>
       </c>
       <c r="BG3" s="1">
-        <v>-611.165000</v>
+        <v>-611.16499999999996</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>56300.812093</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.639114</v>
+        <v>15.639113999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1694.580000</v>
+        <v>1694.58</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1050.560000</v>
+        <v>-1050.56</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>56312.381277</v>
       </c>
       <c r="BO3" s="1">
-        <v>15.642328</v>
+        <v>15.642327999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1992.590000</v>
+        <v>1992.59</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1808.530000</v>
+        <v>-1808.53</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>56322.795596</v>
+        <v>56322.795596000004</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.645221</v>
+        <v>15.645220999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2381.550000</v>
+        <v>2381.5500000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2681.560000</v>
+        <v>-2681.56</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>56334.250385</v>
+        <v>56334.250384999999</v>
       </c>
       <c r="BY3" s="1">
         <v>15.648403</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2869.520000</v>
+        <v>2869.52</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3626.600000</v>
+        <v>-3626.6</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>56345.312192</v>
+        <v>56345.312191999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>15.651476</v>
+        <v>15.651476000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4287.420000</v>
+        <v>4287.42</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5899.840000</v>
+        <v>-5899.84</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>56174.224133</v>
+        <v>56174.224133000003</v>
       </c>
       <c r="B4" s="1">
         <v>15.603951</v>
       </c>
       <c r="C4" s="1">
-        <v>1246.970000</v>
+        <v>1246.97</v>
       </c>
       <c r="D4" s="1">
-        <v>-277.934000</v>
+        <v>-277.93400000000003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>56184.217526</v>
       </c>
       <c r="G4" s="1">
-        <v>15.606727</v>
+        <v>15.606726999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.560000</v>
+        <v>1268.56</v>
       </c>
       <c r="I4" s="1">
-        <v>-243.602000</v>
+        <v>-243.602</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>56194.389989</v>
+        <v>56194.389989000003</v>
       </c>
       <c r="L4" s="1">
         <v>15.609553</v>
       </c>
       <c r="M4" s="1">
-        <v>1301.650000</v>
+        <v>1301.6500000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-192.216000</v>
+        <v>-192.21600000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>56204.566921</v>
+        <v>56204.566920999998</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.612380</v>
+        <v>15.61238</v>
       </c>
       <c r="R4" s="1">
-        <v>1313.600000</v>
+        <v>1313.6</v>
       </c>
       <c r="S4" s="1">
-        <v>-177.748000</v>
+        <v>-177.74799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>56215.114319</v>
       </c>
       <c r="V4" s="1">
-        <v>15.615310</v>
+        <v>15.615309999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1327.770000</v>
+        <v>1327.77</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.389000</v>
+        <v>-167.38900000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>56225.545216</v>
+        <v>56225.545215999999</v>
       </c>
       <c r="AA4" s="1">
         <v>15.618207</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.660000</v>
+        <v>1346.66</v>
       </c>
       <c r="AC4" s="1">
-        <v>-167.734000</v>
+        <v>-167.73400000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>56236.490929</v>
@@ -1085,58 +1501,58 @@
         <v>15.621247</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.498000</v>
+        <v>-178.49799999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>56246.644997</v>
+        <v>56246.644997000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.624068</v>
+        <v>15.624067999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1382.160000</v>
+        <v>1382.16</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.191000</v>
+        <v>-209.191</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>56257.264869</v>
+        <v>56257.264868999999</v>
       </c>
       <c r="AP4" s="1">
         <v>15.627018</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1404.710000</v>
+        <v>1404.71</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.282000</v>
+        <v>-253.28200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>56267.836567</v>
+        <v>56267.836566999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.629955</v>
+        <v>15.629955000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1430.100000</v>
+        <v>1430.1</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.208000</v>
+        <v>-313.20800000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>56279.240585</v>
@@ -1145,28 +1561,28 @@
         <v>15.633122</v>
       </c>
       <c r="BA4" s="1">
-        <v>1450.030000</v>
+        <v>1450.03</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.003000</v>
+        <v>-365.00299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>56290.125823</v>
+        <v>56290.125823000002</v>
       </c>
       <c r="BE4" s="1">
         <v>15.636146</v>
       </c>
       <c r="BF4" s="1">
-        <v>1537.430000</v>
+        <v>1537.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-611.161000</v>
+        <v>-611.16099999999994</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>56301.292747</v>
@@ -1175,13 +1591,13 @@
         <v>15.639248</v>
       </c>
       <c r="BK4" s="1">
-        <v>1694.510000</v>
+        <v>1694.51</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1050.520000</v>
+        <v>-1050.52</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>56312.801388</v>
@@ -1190,43 +1606,43 @@
         <v>15.642445</v>
       </c>
       <c r="BP4" s="1">
-        <v>1992.470000</v>
+        <v>1992.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1808.800000</v>
+        <v>-1808.8</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>56323.215888</v>
+        <v>56323.215887999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>15.645338</v>
+        <v>15.645338000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2381.440000</v>
+        <v>2381.44</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2681.430000</v>
+        <v>-2681.43</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>56334.670495</v>
+        <v>56334.670494999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.648520</v>
+        <v>15.64852</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2869.230000</v>
+        <v>2869.23</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3626.480000</v>
+        <v>-3626.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>56345.864706</v>
@@ -1235,225 +1651,225 @@
         <v>15.651629</v>
       </c>
       <c r="CE4" s="1">
-        <v>4292.200000</v>
+        <v>4292.2</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5880.510000</v>
+        <v>-5880.51</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>56174.493495</v>
+        <v>56174.493495000002</v>
       </c>
       <c r="B5" s="1">
-        <v>15.604026</v>
+        <v>15.604025999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1246.660000</v>
+        <v>1246.6600000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-278.085000</v>
+        <v>-278.08499999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>56184.557995</v>
+        <v>56184.557995000003</v>
       </c>
       <c r="G5" s="1">
-        <v>15.606822</v>
+        <v>15.606821999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.400000</v>
+        <v>1268.4000000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-242.415000</v>
+        <v>-242.41499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>56194.736185</v>
+        <v>56194.736185000002</v>
       </c>
       <c r="L5" s="1">
-        <v>15.609649</v>
+        <v>15.609648999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1301.210000</v>
+        <v>1301.21</v>
       </c>
       <c r="N5" s="1">
-        <v>-192.363000</v>
+        <v>-192.363</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>56204.918593</v>
+        <v>56204.918593000002</v>
       </c>
       <c r="Q5" s="1">
         <v>15.612477</v>
       </c>
       <c r="R5" s="1">
-        <v>1313.630000</v>
+        <v>1313.63</v>
       </c>
       <c r="S5" s="1">
-        <v>-177.613000</v>
+        <v>-177.613</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>56215.798300</v>
+        <v>56215.798300000002</v>
       </c>
       <c r="V5" s="1">
-        <v>15.615500</v>
+        <v>15.615500000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1327.910000</v>
+        <v>1327.91</v>
       </c>
       <c r="X5" s="1">
-        <v>-167.341000</v>
+        <v>-167.34100000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>56226.240612</v>
+        <v>56226.240612000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.618400</v>
+        <v>15.618399999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC5" s="1">
-        <v>-167.829000</v>
+        <v>-167.82900000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>56236.833665</v>
+        <v>56236.833664999998</v>
       </c>
       <c r="AF5" s="1">
         <v>15.621343</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.473000</v>
+        <v>-178.47300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>56246.991731</v>
+        <v>56246.991731000002</v>
       </c>
       <c r="AK5" s="1">
         <v>15.624164</v>
       </c>
       <c r="AL5" s="1">
-        <v>1382.160000</v>
+        <v>1382.16</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.185000</v>
+        <v>-209.185</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>56257.624933</v>
+        <v>56257.624932999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.627118</v>
+        <v>15.627117999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1404.730000</v>
+        <v>1404.73</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.259000</v>
+        <v>-253.25899999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>56268.508151</v>
+        <v>56268.508151000002</v>
       </c>
       <c r="AU5" s="1">
         <v>15.630141</v>
       </c>
       <c r="AV5" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.153000</v>
+        <v>-313.15300000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>56279.610110</v>
+        <v>56279.610110000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.633225</v>
+        <v>15.633224999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1450.040000</v>
+        <v>1450.04</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.989000</v>
+        <v>-364.98899999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>56290.563290</v>
+        <v>56290.563289999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>15.636268</v>
+        <v>15.636267999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1537.460000</v>
+        <v>1537.46</v>
       </c>
       <c r="BG5" s="1">
-        <v>-611.135000</v>
+        <v>-611.13499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>56301.670203</v>
+        <v>56301.670203000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>15.639353</v>
       </c>
       <c r="BK5" s="1">
-        <v>1694.560000</v>
+        <v>1694.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1050.580000</v>
+        <v>-1050.58</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>56313.200173</v>
+        <v>56313.200172999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.642556</v>
+        <v>15.642556000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1992.450000</v>
+        <v>1992.45</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1808.650000</v>
+        <v>-1808.65</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>56323.631535</v>
@@ -1462,560 +1878,560 @@
         <v>15.645453</v>
       </c>
       <c r="BU5" s="1">
-        <v>2381.350000</v>
+        <v>2381.35</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2681.350000</v>
+        <v>-2681.35</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>56335.110942</v>
+        <v>56335.110941999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.648642</v>
+        <v>15.648642000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2869.250000</v>
+        <v>2869.25</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3625.880000</v>
+        <v>-3625.88</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>56346.389002</v>
+        <v>56346.389002000004</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.651775</v>
+        <v>15.651775000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4274.360000</v>
+        <v>4274.3599999999997</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5892.060000</v>
+        <v>-5892.06</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>56174.836195</v>
+        <v>56174.836195000003</v>
       </c>
       <c r="B6" s="1">
-        <v>15.604121</v>
+        <v>15.604120999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="D6" s="1">
-        <v>-278.206000</v>
+        <v>-278.20600000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>56184.905013</v>
+        <v>56184.905013000003</v>
       </c>
       <c r="G6" s="1">
         <v>15.606918</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.490000</v>
+        <v>1267.49</v>
       </c>
       <c r="I6" s="1">
-        <v>-243.021000</v>
+        <v>-243.02099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>56195.083385</v>
+        <v>56195.083384999998</v>
       </c>
       <c r="L6" s="1">
         <v>15.609745</v>
       </c>
       <c r="M6" s="1">
-        <v>1301.330000</v>
+        <v>1301.33</v>
       </c>
       <c r="N6" s="1">
-        <v>-192.035000</v>
+        <v>-192.035</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>56205.613946</v>
+        <v>56205.613945999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.612671</v>
+        <v>15.612671000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1313.750000</v>
+        <v>1313.75</v>
       </c>
       <c r="S6" s="1">
-        <v>-177.607000</v>
+        <v>-177.607</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>56216.148476</v>
+        <v>56216.148476000002</v>
       </c>
       <c r="V6" s="1">
-        <v>15.615597</v>
+        <v>15.615596999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1327.930000</v>
+        <v>1327.93</v>
       </c>
       <c r="X6" s="1">
-        <v>-167.378000</v>
+        <v>-167.37799999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>56226.582849</v>
+        <v>56226.582848999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>15.618495</v>
+        <v>15.618494999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.650000</v>
+        <v>1346.65</v>
       </c>
       <c r="AC6" s="1">
-        <v>-167.763000</v>
+        <v>-167.76300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>56237.176864</v>
+        <v>56237.176864000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.621438</v>
+        <v>15.621437999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.500000</v>
+        <v>1360.5</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.688000</v>
+        <v>-178.68799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>56247.653399</v>
+        <v>56247.653399000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.624348</v>
+        <v>15.624347999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.190000</v>
+        <v>-209.19</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>56258.302505</v>
       </c>
       <c r="AP6" s="1">
-        <v>15.627306</v>
+        <v>15.627306000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1404.670000</v>
+        <v>1404.67</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.266000</v>
+        <v>-253.26599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>56268.967237</v>
+        <v>56268.967236999997</v>
       </c>
       <c r="AU6" s="1">
         <v>15.630269</v>
       </c>
       <c r="AV6" s="1">
-        <v>1430.120000</v>
+        <v>1430.12</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.136000</v>
+        <v>-313.13600000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>56279.969241</v>
+        <v>56279.969240999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.633325</v>
+        <v>15.633324999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1450.020000</v>
+        <v>1450.02</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.981000</v>
+        <v>-364.98099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>56290.923849</v>
+        <v>56290.923848999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.636368</v>
+        <v>15.636367999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1537.460000</v>
+        <v>1537.46</v>
       </c>
       <c r="BG6" s="1">
-        <v>-611.147000</v>
+        <v>-611.14700000000005</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>56302.042667</v>
+        <v>56302.042667000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.639456</v>
+        <v>15.639455999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1694.500000</v>
+        <v>1694.5</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1050.480000</v>
+        <v>-1050.48</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>56313.637643</v>
+        <v>56313.637643000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>15.642677</v>
+        <v>15.642677000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1992.370000</v>
+        <v>1992.37</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1808.630000</v>
+        <v>-1808.63</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>56324.053133</v>
+        <v>56324.053133000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.645570</v>
+        <v>15.645569999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2381.200000</v>
+        <v>2381.1999999999998</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2681.150000</v>
+        <v>-2681.15</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>56335.539519</v>
+        <v>56335.539518999998</v>
       </c>
       <c r="BY6" s="1">
         <v>15.648761</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2868.880000</v>
+        <v>2868.88</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3626.730000</v>
+        <v>-3626.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>56346.929652</v>
+        <v>56346.929651999999</v>
       </c>
       <c r="CD6" s="1">
         <v>15.651925</v>
       </c>
       <c r="CE6" s="1">
-        <v>4297.870000</v>
+        <v>4297.87</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5890.900000</v>
+        <v>-5890.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>56175.177444</v>
+        <v>56175.177444000001</v>
       </c>
       <c r="B7" s="1">
-        <v>15.604216</v>
+        <v>15.604215999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.710000</v>
+        <v>1246.71</v>
       </c>
       <c r="D7" s="1">
-        <v>-277.766000</v>
+        <v>-277.76600000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>56185.595444</v>
+        <v>56185.595443999999</v>
       </c>
       <c r="G7" s="1">
-        <v>15.607110</v>
+        <v>15.60711</v>
       </c>
       <c r="H7" s="1">
-        <v>1268.540000</v>
+        <v>1268.54</v>
       </c>
       <c r="I7" s="1">
-        <v>-242.702000</v>
+        <v>-242.702</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>56195.778774</v>
+        <v>56195.778773999999</v>
       </c>
       <c r="L7" s="1">
-        <v>15.609939</v>
+        <v>15.609939000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1301.320000</v>
+        <v>1301.32</v>
       </c>
       <c r="N7" s="1">
-        <v>-192.073000</v>
+        <v>-192.07300000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>56205.961192</v>
+        <v>56205.961192000002</v>
       </c>
       <c r="Q7" s="1">
         <v>15.612767</v>
       </c>
       <c r="R7" s="1">
-        <v>1313.750000</v>
+        <v>1313.75</v>
       </c>
       <c r="S7" s="1">
-        <v>-177.663000</v>
+        <v>-177.66300000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>56216.491745</v>
+        <v>56216.491744999999</v>
       </c>
       <c r="V7" s="1">
-        <v>15.615692</v>
+        <v>15.615691999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1327.960000</v>
+        <v>1327.96</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.616000</v>
+        <v>-167.61600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>56226.941955</v>
+        <v>56226.941955000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.618595</v>
+        <v>15.618594999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.620000</v>
+        <v>1346.62</v>
       </c>
       <c r="AC7" s="1">
-        <v>-167.830000</v>
+        <v>-167.83</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>56237.840511</v>
+        <v>56237.840511000002</v>
       </c>
       <c r="AF7" s="1">
         <v>15.621622</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.530000</v>
+        <v>-178.53</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>56248.038258</v>
       </c>
       <c r="AK7" s="1">
-        <v>15.624455</v>
+        <v>15.624454999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.153000</v>
+        <v>-209.15299999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>56258.739445</v>
+        <v>56258.739444999999</v>
       </c>
       <c r="AP7" s="1">
         <v>15.627428</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1404.700000</v>
+        <v>1404.7</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.264000</v>
+        <v>-253.26400000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>56269.330054</v>
+        <v>56269.330053999998</v>
       </c>
       <c r="AU7" s="1">
         <v>15.630369</v>
       </c>
       <c r="AV7" s="1">
-        <v>1430.140000</v>
+        <v>1430.14</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.163000</v>
+        <v>-313.16300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>56280.324839</v>
+        <v>56280.324839000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.633424</v>
       </c>
       <c r="BA7" s="1">
-        <v>1450.050000</v>
+        <v>1450.05</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.008000</v>
+        <v>-365.00799999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>56291.283449</v>
+        <v>56291.283449000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>15.636468</v>
+        <v>15.636468000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1537.420000</v>
+        <v>1537.42</v>
       </c>
       <c r="BG7" s="1">
-        <v>-611.094000</v>
+        <v>-611.09400000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>56302.477161</v>
+        <v>56302.477161000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>15.639577</v>
+        <v>15.639576999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1694.570000</v>
+        <v>1694.57</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1050.470000</v>
+        <v>-1050.47</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>56314.019066</v>
+        <v>56314.019066000001</v>
       </c>
       <c r="BO7" s="1">
         <v>15.642783</v>
       </c>
       <c r="BP7" s="1">
-        <v>1992.320000</v>
+        <v>1992.32</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1808.640000</v>
+        <v>-1808.64</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>56324.459356</v>
+        <v>56324.459355999999</v>
       </c>
       <c r="BT7" s="1">
         <v>15.645683</v>
       </c>
       <c r="BU7" s="1">
-        <v>2380.890000</v>
+        <v>2380.89</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2681.370000</v>
+        <v>-2681.37</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>56335.961165</v>
+        <v>56335.961165000001</v>
       </c>
       <c r="BY7" s="1">
         <v>15.648878</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2869.290000</v>
+        <v>2869.29</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3626.180000</v>
+        <v>-3626.18</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>56347.468766</v>
+        <v>56347.468765999998</v>
       </c>
       <c r="CD7" s="1">
         <v>15.652075</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.490000</v>
+        <v>4280.49</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5882.760000</v>
+        <v>-5882.76</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>56175.865393</v>
       </c>
@@ -2023,43 +2439,43 @@
         <v>15.604407</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.820000</v>
+        <v>1246.82</v>
       </c>
       <c r="D8" s="1">
-        <v>-277.903000</v>
+        <v>-277.90300000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>56185.946116</v>
+        <v>56185.946115999999</v>
       </c>
       <c r="G8" s="1">
-        <v>15.607207</v>
+        <v>15.607207000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.760000</v>
+        <v>1268.76</v>
       </c>
       <c r="I8" s="1">
-        <v>-243.784000</v>
+        <v>-243.78399999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>56196.127004</v>
+        <v>56196.127004000002</v>
       </c>
       <c r="L8" s="1">
         <v>15.610035</v>
       </c>
       <c r="M8" s="1">
-        <v>1301.340000</v>
+        <v>1301.3399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-192.205000</v>
+        <v>-192.20500000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>56206.311856</v>
@@ -2068,557 +2484,557 @@
         <v>15.612864</v>
       </c>
       <c r="R8" s="1">
-        <v>1313.780000</v>
+        <v>1313.78</v>
       </c>
       <c r="S8" s="1">
-        <v>-177.746000</v>
+        <v>-177.74600000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>56217.137512</v>
+        <v>56217.137512000001</v>
       </c>
       <c r="V8" s="1">
         <v>15.615872</v>
       </c>
       <c r="W8" s="1">
-        <v>1327.870000</v>
+        <v>1327.87</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.274000</v>
+        <v>-167.274</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>56227.606062</v>
+        <v>56227.606061999999</v>
       </c>
       <c r="AA8" s="1">
         <v>15.618779</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.650000</v>
+        <v>1346.65</v>
       </c>
       <c r="AC8" s="1">
-        <v>-167.673000</v>
+        <v>-167.673</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>56238.207054</v>
+        <v>56238.207053999999</v>
       </c>
       <c r="AF8" s="1">
         <v>15.621724</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.689000</v>
+        <v>-178.68899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>56248.383970</v>
+        <v>56248.383970000003</v>
       </c>
       <c r="AK8" s="1">
         <v>15.624551</v>
       </c>
       <c r="AL8" s="1">
-        <v>1382.180000</v>
+        <v>1382.18</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.171000</v>
+        <v>-209.17099999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>56259.101342</v>
+        <v>56259.101342000002</v>
       </c>
       <c r="AP8" s="1">
         <v>15.627528</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.284000</v>
+        <v>-253.28399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>56269.693125</v>
+        <v>56269.693124999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.630470</v>
+        <v>15.630470000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.163000</v>
+        <v>-313.16300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>56280.751431</v>
+        <v>56280.751430999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.633542</v>
       </c>
       <c r="BA8" s="1">
-        <v>1450.010000</v>
+        <v>1450.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.998000</v>
+        <v>-364.99799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>56291.718936</v>
+        <v>56291.718935999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.636589</v>
+        <v>15.636589000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1537.450000</v>
+        <v>1537.45</v>
       </c>
       <c r="BG8" s="1">
-        <v>-611.128000</v>
+        <v>-611.12800000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>56302.821387</v>
+        <v>56302.821387000004</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.639673</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.420000</v>
+        <v>1694.42</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1050.480000</v>
+        <v>-1050.48</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>56314.438218</v>
+        <v>56314.438218000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.642900</v>
+        <v>15.642899999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1992.400000</v>
+        <v>1992.4</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1808.630000</v>
+        <v>-1808.63</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>56324.875500</v>
+        <v>56324.875500000002</v>
       </c>
       <c r="BT8" s="1">
         <v>15.645799</v>
       </c>
       <c r="BU8" s="1">
-        <v>2380.930000</v>
+        <v>2380.9299999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2681.070000</v>
+        <v>-2681.07</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>56336.384172</v>
+        <v>56336.384171999998</v>
       </c>
       <c r="BY8" s="1">
         <v>15.648996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2868.720000</v>
+        <v>2868.72</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3626.010000</v>
+        <v>-3626.01</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>56348.008415</v>
+        <v>56348.008414999997</v>
       </c>
       <c r="CD8" s="1">
         <v>15.652225</v>
       </c>
       <c r="CE8" s="1">
-        <v>4283.290000</v>
+        <v>4283.29</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5898.930000</v>
+        <v>-5898.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>56176.204657</v>
+        <v>56176.204657000002</v>
       </c>
       <c r="B9" s="1">
-        <v>15.604501</v>
+        <v>15.604501000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.840000</v>
+        <v>1246.8399999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-277.998000</v>
+        <v>-277.99799999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>56186.290308</v>
+        <v>56186.290308000003</v>
       </c>
       <c r="G9" s="1">
         <v>15.607303</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.110000</v>
+        <v>1269.1099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-243.253000</v>
+        <v>-243.25299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>56196.476160</v>
+        <v>56196.476159999998</v>
       </c>
       <c r="L9" s="1">
         <v>15.610132</v>
       </c>
       <c r="M9" s="1">
-        <v>1301.270000</v>
+        <v>1301.27</v>
       </c>
       <c r="N9" s="1">
-        <v>-192.265000</v>
+        <v>-192.26499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>56206.973481</v>
+        <v>56206.973481000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.613048</v>
+        <v>15.613047999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1313.670000</v>
+        <v>1313.67</v>
       </c>
       <c r="S9" s="1">
-        <v>-177.654000</v>
+        <v>-177.654</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>56217.521900</v>
+        <v>56217.5219</v>
       </c>
       <c r="V9" s="1">
         <v>15.615978</v>
       </c>
       <c r="W9" s="1">
-        <v>1327.760000</v>
+        <v>1327.76</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.570000</v>
+        <v>-167.57</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>56227.986535</v>
+        <v>56227.986535000004</v>
       </c>
       <c r="AA9" s="1">
-        <v>15.618885</v>
+        <v>15.618885000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.650000</v>
+        <v>1346.65</v>
       </c>
       <c r="AC9" s="1">
-        <v>-167.844000</v>
+        <v>-167.84399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>56238.552768</v>
+        <v>56238.552768000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.621820</v>
+        <v>15.62182</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.380000</v>
+        <v>1360.38</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.485000</v>
+        <v>-178.48500000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>56248.736656</v>
+        <v>56248.736656000001</v>
       </c>
       <c r="AK9" s="1">
         <v>15.624649</v>
       </c>
       <c r="AL9" s="1">
-        <v>1382.160000</v>
+        <v>1382.16</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.215000</v>
+        <v>-209.215</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>56259.459140</v>
+        <v>56259.459139999999</v>
       </c>
       <c r="AP9" s="1">
         <v>15.627628</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1404.660000</v>
+        <v>1404.66</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.297000</v>
+        <v>-253.297</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>56270.126629</v>
+        <v>56270.126628999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.630591</v>
+        <v>15.630591000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.147000</v>
+        <v>-313.14699999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>56281.039119</v>
+        <v>56281.039119000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.633622</v>
+        <v>15.633622000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1449.980000</v>
+        <v>1449.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.026000</v>
+        <v>-365.02600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>56292.005655</v>
+        <v>56292.005655000001</v>
       </c>
       <c r="BE9" s="1">
         <v>15.636668</v>
       </c>
       <c r="BF9" s="1">
-        <v>1537.450000</v>
+        <v>1537.45</v>
       </c>
       <c r="BG9" s="1">
-        <v>-611.100000</v>
+        <v>-611.1</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>56303.194874</v>
+        <v>56303.194874000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.639776</v>
+        <v>15.639775999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1694.470000</v>
+        <v>1694.47</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1050.570000</v>
+        <v>-1050.57</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>56314.835481</v>
+        <v>56314.835481000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.643010</v>
+        <v>15.64301</v>
       </c>
       <c r="BP9" s="1">
-        <v>1992.440000</v>
+        <v>1992.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1808.630000</v>
+        <v>-1808.63</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>56325.290651</v>
+        <v>56325.290651000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.645914</v>
+        <v>15.645913999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2380.590000</v>
+        <v>2380.59</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2680.640000</v>
+        <v>-2680.64</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>56336.809244</v>
+        <v>56336.809243999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>15.649114</v>
+        <v>15.649114000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2868.520000</v>
+        <v>2868.52</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3625.860000</v>
+        <v>-3625.86</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>56348.549550</v>
+        <v>56348.549550000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.652375</v>
+        <v>15.652374999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4293.260000</v>
+        <v>4293.26</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5880.990000</v>
+        <v>-5880.99</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>56176.545936</v>
+        <v>56176.545936000002</v>
       </c>
       <c r="B10" s="1">
-        <v>15.604596</v>
+        <v>15.604596000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.760000</v>
+        <v>1246.76</v>
       </c>
       <c r="D10" s="1">
-        <v>-277.978000</v>
+        <v>-277.97800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>56186.946018</v>
+        <v>56186.946018000002</v>
       </c>
       <c r="G10" s="1">
         <v>15.607485</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.960000</v>
+        <v>1268.96</v>
       </c>
       <c r="I10" s="1">
-        <v>-243.405000</v>
+        <v>-243.405</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>56196.932996</v>
+        <v>56196.932996000003</v>
       </c>
       <c r="L10" s="1">
-        <v>15.610259</v>
+        <v>15.610258999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1301.320000</v>
+        <v>1301.32</v>
       </c>
       <c r="N10" s="1">
-        <v>-192.124000</v>
+        <v>-192.124</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>56207.358903</v>
       </c>
       <c r="Q10" s="1">
-        <v>15.613155</v>
+        <v>15.613155000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1313.720000</v>
+        <v>1313.72</v>
       </c>
       <c r="S10" s="1">
-        <v>-177.680000</v>
+        <v>-177.68</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>56217.865130</v>
+        <v>56217.865129999998</v>
       </c>
       <c r="V10" s="1">
-        <v>15.616074</v>
+        <v>15.616073999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1327.970000</v>
+        <v>1327.97</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.493000</v>
+        <v>-167.49299999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>56228.339648</v>
+        <v>56228.339648000001</v>
       </c>
       <c r="AA10" s="1">
         <v>15.618983</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.620000</v>
+        <v>1346.62</v>
       </c>
       <c r="AC10" s="1">
-        <v>-167.729000</v>
+        <v>-167.72900000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>56238.902446</v>
@@ -2627,300 +3043,300 @@
         <v>15.621917</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.470000</v>
+        <v>1360.47</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.490000</v>
+        <v>-178.49</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>56249.161696</v>
+        <v>56249.161696000003</v>
       </c>
       <c r="AK10" s="1">
         <v>15.624767</v>
       </c>
       <c r="AL10" s="1">
-        <v>1382.150000</v>
+        <v>1382.15</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.182000</v>
+        <v>-209.18199999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>56259.891652</v>
+        <v>56259.891651999998</v>
       </c>
       <c r="AP10" s="1">
         <v>15.627748</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1404.700000</v>
+        <v>1404.7</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.259000</v>
+        <v>-253.25899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>56270.423699</v>
+        <v>56270.423698999999</v>
       </c>
       <c r="AU10" s="1">
         <v>15.630673</v>
       </c>
       <c r="AV10" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.186000</v>
+        <v>-313.18599999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>56281.402150</v>
+        <v>56281.402150000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>15.633723</v>
       </c>
       <c r="BA10" s="1">
-        <v>1450.040000</v>
+        <v>1450.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.980000</v>
+        <v>-364.98</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>56292.367207</v>
+        <v>56292.367207000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>15.636769</v>
+        <v>15.636768999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1537.420000</v>
+        <v>1537.42</v>
       </c>
       <c r="BG10" s="1">
-        <v>-611.104000</v>
+        <v>-611.10400000000004</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>56303.569354</v>
+        <v>56303.569353999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.639880</v>
+        <v>15.63988</v>
       </c>
       <c r="BK10" s="1">
-        <v>1694.480000</v>
+        <v>1694.48</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1050.430000</v>
+        <v>-1050.43</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>56315.271962</v>
+        <v>56315.271961999999</v>
       </c>
       <c r="BO10" s="1">
         <v>15.643131</v>
       </c>
       <c r="BP10" s="1">
-        <v>1992.310000</v>
+        <v>1992.31</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1808.640000</v>
+        <v>-1808.64</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>56326.116988</v>
+        <v>56326.116988000002</v>
       </c>
       <c r="BT10" s="1">
         <v>15.646144</v>
       </c>
       <c r="BU10" s="1">
-        <v>2380.810000</v>
+        <v>2380.81</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2680.350000</v>
+        <v>-2680.35</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>56337.226886</v>
+        <v>56337.226885999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.649230</v>
+        <v>15.649229999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2868.290000</v>
+        <v>2868.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3625.710000</v>
+        <v>-3625.71</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>56349.087708</v>
+        <v>56349.087707999999</v>
       </c>
       <c r="CD10" s="1">
         <v>15.652524</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.800000</v>
+        <v>4273.8</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5890.160000</v>
+        <v>-5890.16</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>56177.195663</v>
+        <v>56177.195662999999</v>
       </c>
       <c r="B11" s="1">
         <v>15.604777</v>
       </c>
       <c r="C11" s="1">
-        <v>1247.140000</v>
+        <v>1247.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-277.975000</v>
+        <v>-277.97500000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>56187.325458</v>
+        <v>56187.325457999999</v>
       </c>
       <c r="G11" s="1">
-        <v>15.607590</v>
+        <v>15.60759</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.950000</v>
+        <v>1267.95</v>
       </c>
       <c r="I11" s="1">
-        <v>-242.992000</v>
+        <v>-242.99199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>56197.169557</v>
+        <v>56197.169557000001</v>
       </c>
       <c r="L11" s="1">
         <v>15.610325</v>
       </c>
       <c r="M11" s="1">
-        <v>1301.340000</v>
+        <v>1301.3399999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-192.166000</v>
+        <v>-192.166</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>56207.705935</v>
+        <v>56207.705934999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.613252</v>
+        <v>15.613251999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S11" s="1">
-        <v>-177.637000</v>
+        <v>-177.637</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>56218.210344</v>
+        <v>56218.210343999999</v>
       </c>
       <c r="V11" s="1">
-        <v>15.616170</v>
+        <v>15.61617</v>
       </c>
       <c r="W11" s="1">
-        <v>1327.810000</v>
+        <v>1327.81</v>
       </c>
       <c r="X11" s="1">
-        <v>-167.312000</v>
+        <v>-167.31200000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>56228.685393</v>
       </c>
       <c r="AA11" s="1">
-        <v>15.619079</v>
+        <v>15.619078999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.810000</v>
+        <v>1346.81</v>
       </c>
       <c r="AC11" s="1">
-        <v>-167.668000</v>
+        <v>-167.66800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>56239.325533</v>
+        <v>56239.325533000003</v>
       </c>
       <c r="AF11" s="1">
         <v>15.622035</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.494000</v>
+        <v>-178.494</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>56249.449903</v>
+        <v>56249.449903000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.624847</v>
+        <v>15.624847000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1382.130000</v>
+        <v>1382.13</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.179000</v>
+        <v>-209.179</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>56260.180321</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.627828</v>
+        <v>15.627827999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1404.700000</v>
+        <v>1404.7</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.277000</v>
+        <v>-253.27699999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>56270.790254</v>
@@ -2929,103 +3345,103 @@
         <v>15.630775</v>
       </c>
       <c r="AV11" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.174000</v>
+        <v>-313.17399999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>56281.762246</v>
+        <v>56281.762245999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>15.633823</v>
       </c>
       <c r="BA11" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.014000</v>
+        <v>-365.01400000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>56292.725814</v>
+        <v>56292.725813999998</v>
       </c>
       <c r="BE11" s="1">
         <v>15.636868</v>
       </c>
       <c r="BF11" s="1">
-        <v>1537.460000</v>
+        <v>1537.46</v>
       </c>
       <c r="BG11" s="1">
-        <v>-611.110000</v>
+        <v>-611.11</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>56304.319799</v>
+        <v>56304.319798999997</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.640089</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.470000</v>
+        <v>1694.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1050.580000</v>
+        <v>-1050.58</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>56315.653882</v>
+        <v>56315.653881999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.643237</v>
+        <v>15.643236999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1992.210000</v>
+        <v>1992.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1808.550000</v>
+        <v>-1808.55</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>56326.532139</v>
+        <v>56326.532139000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.646259</v>
+        <v>15.646259000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2380.610000</v>
+        <v>2380.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2680.310000</v>
+        <v>-2680.31</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>56337.674268</v>
+        <v>56337.674268000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.649354</v>
+        <v>15.649354000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2869.050000</v>
+        <v>2869.05</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3625.710000</v>
+        <v>-3625.71</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>56349.954715</v>
@@ -3034,135 +3450,135 @@
         <v>15.652765</v>
       </c>
       <c r="CE11" s="1">
-        <v>4288.270000</v>
+        <v>4288.2700000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5877.530000</v>
+        <v>-5877.53</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>56177.569648</v>
+        <v>56177.569647999997</v>
       </c>
       <c r="B12" s="1">
-        <v>15.604880</v>
+        <v>15.60488</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.830000</v>
+        <v>1246.83</v>
       </c>
       <c r="D12" s="1">
-        <v>-277.965000</v>
+        <v>-277.96499999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>56187.670177</v>
       </c>
       <c r="G12" s="1">
-        <v>15.607686</v>
+        <v>15.607685999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.980000</v>
+        <v>1267.98</v>
       </c>
       <c r="I12" s="1">
-        <v>-243.443000</v>
+        <v>-243.44300000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>56197.515268</v>
+        <v>56197.515268000003</v>
       </c>
       <c r="L12" s="1">
-        <v>15.610421</v>
+        <v>15.610421000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1301.310000</v>
+        <v>1301.31</v>
       </c>
       <c r="N12" s="1">
-        <v>-192.316000</v>
+        <v>-192.316</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>56208.056742</v>
+        <v>56208.056742000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.613349</v>
+        <v>15.613348999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1313.840000</v>
+        <v>1313.84</v>
       </c>
       <c r="S12" s="1">
-        <v>-177.782000</v>
+        <v>-177.78200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>56218.632441</v>
+        <v>56218.632441000002</v>
       </c>
       <c r="V12" s="1">
         <v>15.616287</v>
       </c>
       <c r="W12" s="1">
-        <v>1327.840000</v>
+        <v>1327.84</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.320000</v>
+        <v>-167.32</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>56229.124317</v>
+        <v>56229.124317000002</v>
       </c>
       <c r="AA12" s="1">
         <v>15.619201</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.630000</v>
+        <v>1346.63</v>
       </c>
       <c r="AC12" s="1">
-        <v>-167.985000</v>
+        <v>-167.98500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>56239.604814</v>
+        <v>56239.604813999998</v>
       </c>
       <c r="AF12" s="1">
         <v>15.622112</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.454000</v>
+        <v>-178.45400000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>56249.809471</v>
       </c>
       <c r="AK12" s="1">
-        <v>15.624947</v>
+        <v>15.624947000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1382.140000</v>
+        <v>1382.14</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.184000</v>
+        <v>-209.184</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>56260.538965</v>
@@ -3171,225 +3587,225 @@
         <v>15.627927</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1404.690000</v>
+        <v>1404.69</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.268000</v>
+        <v>-253.268</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>56271.152355</v>
+        <v>56271.152354999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.630876</v>
+        <v>15.630876000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1430.100000</v>
+        <v>1430.1</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.137000</v>
+        <v>-313.137</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>56282.477012</v>
+        <v>56282.477012000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.634021</v>
+        <v>15.634021000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.980000</v>
+        <v>-364.98</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>56293.451959</v>
+        <v>56293.451958999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.637070</v>
+        <v>15.63707</v>
       </c>
       <c r="BF12" s="1">
-        <v>1537.410000</v>
+        <v>1537.41</v>
       </c>
       <c r="BG12" s="1">
-        <v>-611.111000</v>
+        <v>-611.11099999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>56304.699280</v>
+        <v>56304.699280000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.640194</v>
+        <v>15.640193999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1694.500000</v>
+        <v>1694.5</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1050.500000</v>
+        <v>-1050.5</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>56316.076997</v>
+        <v>56316.076996999996</v>
       </c>
       <c r="BO12" s="1">
         <v>15.643355</v>
       </c>
       <c r="BP12" s="1">
-        <v>1992.330000</v>
+        <v>1992.33</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1808.580000</v>
+        <v>-1808.58</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>56326.969148</v>
+        <v>56326.969147999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.646380</v>
+        <v>15.646380000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2380.530000</v>
+        <v>2380.5300000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2680.010000</v>
+        <v>-2680.01</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>56338.413804</v>
+        <v>56338.413804000003</v>
       </c>
       <c r="BY12" s="1">
         <v>15.649559</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2868.740000</v>
+        <v>2868.74</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3625.020000</v>
+        <v>-3625.02</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>56350.168028</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.652824</v>
+        <v>15.652824000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4287.700000</v>
+        <v>4287.7</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5876.480000</v>
+        <v>-5876.48</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>56177.918335</v>
+        <v>56177.918335000002</v>
       </c>
       <c r="B13" s="1">
         <v>15.604977</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.850000</v>
+        <v>1246.8499999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-278.405000</v>
+        <v>-278.40499999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>56188.022336</v>
+        <v>56188.022336000002</v>
       </c>
       <c r="G13" s="1">
-        <v>15.607784</v>
+        <v>15.607784000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.980000</v>
+        <v>1267.98</v>
       </c>
       <c r="I13" s="1">
-        <v>-243.098000</v>
+        <v>-243.09800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>56197.952777</v>
+        <v>56197.952776999999</v>
       </c>
       <c r="L13" s="1">
-        <v>15.610542</v>
+        <v>15.610542000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1301.180000</v>
+        <v>1301.18</v>
       </c>
       <c r="N13" s="1">
-        <v>-192.330000</v>
+        <v>-192.33</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>56208.481318</v>
+        <v>56208.481317999998</v>
       </c>
       <c r="Q13" s="1">
         <v>15.613467</v>
       </c>
       <c r="R13" s="1">
-        <v>1313.770000</v>
+        <v>1313.77</v>
       </c>
       <c r="S13" s="1">
-        <v>-177.725000</v>
+        <v>-177.72499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>56218.900282</v>
+        <v>56218.900282000002</v>
       </c>
       <c r="V13" s="1">
-        <v>15.616361</v>
+        <v>15.616360999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1327.960000</v>
+        <v>1327.96</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.381000</v>
+        <v>-167.381</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>56229.442746</v>
+        <v>56229.442746000001</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.619290</v>
+        <v>15.619289999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.690000</v>
+        <v>1346.69</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.809000</v>
+        <v>-167.809</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>56239.946033</v>
@@ -3398,240 +3814,240 @@
         <v>15.622207</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.486000</v>
+        <v>-178.48599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>56250.156672</v>
+        <v>56250.156671999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.625044</v>
+        <v>15.625044000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1382.130000</v>
+        <v>1382.13</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.165000</v>
+        <v>-209.16499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>56260.903489</v>
+        <v>56260.903488999997</v>
       </c>
       <c r="AP13" s="1">
         <v>15.628029</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.287000</v>
+        <v>-253.28700000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>56271.888386</v>
+        <v>56271.888385999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>15.631080</v>
+        <v>15.631080000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1430.110000</v>
+        <v>1430.11</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.149000</v>
+        <v>-313.149</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>56282.837077</v>
+        <v>56282.837076999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.634121</v>
       </c>
       <c r="BA13" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.026000</v>
+        <v>-365.02600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>56293.843797</v>
+        <v>56293.843797000001</v>
       </c>
       <c r="BE13" s="1">
         <v>15.637179</v>
       </c>
       <c r="BF13" s="1">
-        <v>1537.450000</v>
+        <v>1537.45</v>
       </c>
       <c r="BG13" s="1">
-        <v>-611.116000</v>
+        <v>-611.11599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>56305.071238</v>
+        <v>56305.071237999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>15.640298</v>
       </c>
       <c r="BK13" s="1">
-        <v>1694.470000</v>
+        <v>1694.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1050.460000</v>
+        <v>-1050.46</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>56316.787748</v>
+        <v>56316.787748000002</v>
       </c>
       <c r="BO13" s="1">
         <v>15.643552</v>
       </c>
       <c r="BP13" s="1">
-        <v>1992.260000</v>
+        <v>1992.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1808.650000</v>
+        <v>-1808.65</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>56327.648632</v>
+        <v>56327.648631999997</v>
       </c>
       <c r="BT13" s="1">
         <v>15.646569</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.600000</v>
+        <v>2380.6</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2679.760000</v>
+        <v>-2679.76</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>56338.539328</v>
+        <v>56338.539327999999</v>
       </c>
       <c r="BY13" s="1">
         <v>15.649594</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2868.150000</v>
+        <v>2868.15</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3625.190000</v>
+        <v>-3625.19</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>56350.689322</v>
+        <v>56350.689321999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>15.652969</v>
+        <v>15.652969000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4273.860000</v>
+        <v>4273.8599999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5885.360000</v>
+        <v>-5885.36</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>56178.257139</v>
+        <v>56178.257139000001</v>
       </c>
       <c r="B14" s="1">
-        <v>15.605071</v>
+        <v>15.605071000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.750000</v>
+        <v>1246.75</v>
       </c>
       <c r="D14" s="1">
-        <v>-278.299000</v>
+        <v>-278.29899999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>56188.460802</v>
+        <v>56188.460802000001</v>
       </c>
       <c r="G14" s="1">
         <v>15.607906</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.000000</v>
+        <v>1268</v>
       </c>
       <c r="I14" s="1">
-        <v>-243.524000</v>
+        <v>-243.524</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>56198.210165</v>
+        <v>56198.210164999997</v>
       </c>
       <c r="L14" s="1">
         <v>15.610614</v>
       </c>
       <c r="M14" s="1">
-        <v>1301.520000</v>
+        <v>1301.52</v>
       </c>
       <c r="N14" s="1">
-        <v>-192.522000</v>
+        <v>-192.52199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>56208.761063</v>
+        <v>56208.761062999998</v>
       </c>
       <c r="Q14" s="1">
         <v>15.613545</v>
       </c>
       <c r="R14" s="1">
-        <v>1313.780000</v>
+        <v>1313.78</v>
       </c>
       <c r="S14" s="1">
-        <v>-177.789000</v>
+        <v>-177.78899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>56219.242057</v>
+        <v>56219.242057000003</v>
       </c>
       <c r="V14" s="1">
-        <v>15.616456</v>
+        <v>15.616455999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1327.810000</v>
+        <v>1327.81</v>
       </c>
       <c r="X14" s="1">
-        <v>-167.260000</v>
+        <v>-167.26</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>56229.748281</v>
@@ -3640,482 +4056,482 @@
         <v>15.619375</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.680000</v>
+        <v>1346.68</v>
       </c>
       <c r="AC14" s="1">
-        <v>-167.752000</v>
+        <v>-167.75200000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>56240.289260</v>
+        <v>56240.289259999998</v>
       </c>
       <c r="AF14" s="1">
         <v>15.622303</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.370000</v>
+        <v>1360.37</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.450000</v>
+        <v>-178.45</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>56250.851580</v>
+        <v>56250.851580000002</v>
       </c>
       <c r="AK14" s="1">
         <v>15.625237</v>
       </c>
       <c r="AL14" s="1">
-        <v>1382.130000</v>
+        <v>1382.13</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.190000</v>
+        <v>-209.19</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>56261.627647</v>
+        <v>56261.627647000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.628230</v>
+        <v>15.62823</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.278000</v>
+        <v>-253.27799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>56272.271329</v>
+        <v>56272.271329000003</v>
       </c>
       <c r="AU14" s="1">
         <v>15.631186</v>
       </c>
       <c r="AV14" s="1">
-        <v>1430.110000</v>
+        <v>1430.11</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.145000</v>
+        <v>-313.14499999999998</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>56283.196179</v>
+        <v>56283.196178999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>15.634221</v>
       </c>
       <c r="BA14" s="1">
-        <v>1450.010000</v>
+        <v>1450.01</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.998000</v>
+        <v>-364.99799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>56294.209349</v>
+        <v>56294.209348999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.637280</v>
+        <v>15.637280000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1537.420000</v>
+        <v>1537.42</v>
       </c>
       <c r="BG14" s="1">
-        <v>-611.095000</v>
+        <v>-611.09500000000003</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>56305.769607</v>
+        <v>56305.769607000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>15.640492</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.570000</v>
+        <v>1694.57</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1050.420000</v>
+        <v>-1050.42</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>56316.896184</v>
+        <v>56316.896183999997</v>
       </c>
       <c r="BO14" s="1">
         <v>15.643582</v>
       </c>
       <c r="BP14" s="1">
-        <v>1992.220000</v>
+        <v>1992.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1808.610000</v>
+        <v>-1808.61</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>56327.845048</v>
+        <v>56327.845048000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.646624</v>
+        <v>15.646623999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2380.460000</v>
+        <v>2380.46</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2679.920000</v>
+        <v>-2679.92</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>56338.965887</v>
+        <v>56338.965886999998</v>
       </c>
       <c r="BY14" s="1">
         <v>15.649713</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2868.420000</v>
+        <v>2868.42</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3626.150000</v>
+        <v>-3626.15</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>56351.207113</v>
+        <v>56351.207112999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.653113</v>
+        <v>15.653112999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4278.210000</v>
+        <v>4278.21</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5880.720000</v>
+        <v>-5880.72</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>56178.692589</v>
+        <v>56178.692588999998</v>
       </c>
       <c r="B15" s="1">
-        <v>15.605192</v>
+        <v>15.605192000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.810000</v>
+        <v>1246.81</v>
       </c>
       <c r="D15" s="1">
-        <v>-278.097000</v>
+        <v>-278.09699999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>56188.723691</v>
+        <v>56188.723690999999</v>
       </c>
       <c r="G15" s="1">
         <v>15.607979</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.170000</v>
+        <v>1268.17</v>
       </c>
       <c r="I15" s="1">
-        <v>-242.830000</v>
+        <v>-242.83</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>56198.558883</v>
+        <v>56198.558882999998</v>
       </c>
       <c r="L15" s="1">
         <v>15.610711</v>
       </c>
       <c r="M15" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="N15" s="1">
-        <v>-192.166000</v>
+        <v>-192.166</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>56209.110741</v>
+        <v>56209.110740999997</v>
       </c>
       <c r="Q15" s="1">
         <v>15.613642</v>
       </c>
       <c r="R15" s="1">
-        <v>1313.730000</v>
+        <v>1313.73</v>
       </c>
       <c r="S15" s="1">
-        <v>-177.740000</v>
+        <v>-177.74</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>56219.588727</v>
+        <v>56219.588727000002</v>
       </c>
       <c r="V15" s="1">
         <v>15.616552</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.010000</v>
+        <v>1328.01</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.602000</v>
+        <v>-167.602</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>56230.455082</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.619571</v>
+        <v>15.619571000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.680000</v>
+        <v>1346.68</v>
       </c>
       <c r="AC15" s="1">
-        <v>-167.825000</v>
+        <v>-167.82499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>56240.976715</v>
+        <v>56240.976714999997</v>
       </c>
       <c r="AF15" s="1">
         <v>15.622494</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.300000</v>
+        <v>1360.3</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.623000</v>
+        <v>-178.62299999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>56251.199757</v>
+        <v>56251.199757000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.625333</v>
+        <v>15.625332999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1382.110000</v>
+        <v>1382.11</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.169000</v>
+        <v>-209.16900000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>56262.007583</v>
+        <v>56262.007582999999</v>
       </c>
       <c r="AP15" s="1">
         <v>15.628335</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1404.670000</v>
+        <v>1404.67</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.277000</v>
+        <v>-253.27699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>56272.631394</v>
+        <v>56272.631394000004</v>
       </c>
       <c r="AU15" s="1">
-        <v>15.631286</v>
+        <v>15.631285999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>56283.866807</v>
+        <v>56283.866806999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.634407</v>
+        <v>15.634406999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1450.030000</v>
+        <v>1450.03</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.021000</v>
+        <v>-365.02100000000002</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>56294.909204</v>
+        <v>56294.909204000003</v>
       </c>
       <c r="BE15" s="1">
         <v>15.637475</v>
       </c>
       <c r="BF15" s="1">
-        <v>1537.410000</v>
+        <v>1537.41</v>
       </c>
       <c r="BG15" s="1">
-        <v>-611.094000</v>
+        <v>-611.09400000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>56306.195702</v>
+        <v>56306.195701999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.640610</v>
+        <v>15.640610000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.400000</v>
+        <v>1694.4</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>56317.320934</v>
+        <v>56317.320934000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.643700</v>
+        <v>15.643700000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1992.180000</v>
+        <v>1992.18</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1808.330000</v>
+        <v>-1808.33</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>56328.255735</v>
+        <v>56328.255734999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.646738</v>
+        <v>15.646737999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2380.510000</v>
+        <v>2380.5100000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2679.580000</v>
+        <v>-2679.58</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>56339.396873</v>
+        <v>56339.396872999998</v>
       </c>
       <c r="BY15" s="1">
         <v>15.649832</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2868.990000</v>
+        <v>2868.99</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3626.300000</v>
+        <v>-3626.3</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>56351.755194</v>
+        <v>56351.755193999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.653265</v>
+        <v>15.653264999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4285.350000</v>
+        <v>4285.3500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5876.080000</v>
+        <v>-5876.08</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>56178.958453</v>
+        <v>56178.958452999999</v>
       </c>
       <c r="B16" s="1">
         <v>15.605266</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.840000</v>
+        <v>1246.8399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-278.070000</v>
+        <v>-278.07</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>56189.069393</v>
+        <v>56189.069392999998</v>
       </c>
       <c r="G16" s="1">
-        <v>15.608075</v>
+        <v>15.608074999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1268.210000</v>
+        <v>1268.21</v>
       </c>
       <c r="I16" s="1">
-        <v>-243.381000</v>
+        <v>-243.381</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>56198.902610</v>
+        <v>56198.902609999997</v>
       </c>
       <c r="L16" s="1">
         <v>15.610806</v>
       </c>
       <c r="M16" s="1">
-        <v>1301.260000</v>
+        <v>1301.26</v>
       </c>
       <c r="N16" s="1">
-        <v>-192.033000</v>
+        <v>-192.03299999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>56209.457444</v>
@@ -4124,13 +4540,13 @@
         <v>15.613738</v>
       </c>
       <c r="R16" s="1">
-        <v>1313.700000</v>
+        <v>1313.7</v>
       </c>
       <c r="S16" s="1">
-        <v>-177.638000</v>
+        <v>-177.63800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>56220.274696</v>
@@ -4139,163 +4555,163 @@
         <v>15.616743</v>
       </c>
       <c r="W16" s="1">
-        <v>1327.790000</v>
+        <v>1327.79</v>
       </c>
       <c r="X16" s="1">
-        <v>-167.401000</v>
+        <v>-167.40100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>56230.804795</v>
+        <v>56230.804794999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>15.619668</v>
+        <v>15.619668000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.640000</v>
+        <v>1346.64</v>
       </c>
       <c r="AC16" s="1">
-        <v>-167.747000</v>
+        <v>-167.74700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>56241.320443</v>
+        <v>56241.320442999997</v>
       </c>
       <c r="AF16" s="1">
         <v>15.622589</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.400000</v>
+        <v>1360.4</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.508000</v>
+        <v>-178.50800000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>56251.545470</v>
+        <v>56251.545469999997</v>
       </c>
       <c r="AK16" s="1">
         <v>15.625429</v>
       </c>
       <c r="AL16" s="1">
-        <v>1382.160000</v>
+        <v>1382.16</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.137000</v>
+        <v>-209.137</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>56262.366192</v>
+        <v>56262.366192000001</v>
       </c>
       <c r="AP16" s="1">
         <v>15.628435</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1404.660000</v>
+        <v>1404.66</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.274000</v>
+        <v>-253.274</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>56273.317890</v>
+        <v>56273.317889999998</v>
       </c>
       <c r="AU16" s="1">
         <v>15.631477</v>
       </c>
       <c r="AV16" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.170000</v>
+        <v>-313.17</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>56284.273026</v>
+        <v>56284.273026000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.634520</v>
+        <v>15.63452</v>
       </c>
       <c r="BA16" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.999000</v>
+        <v>-364.99900000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>56295.286165</v>
+        <v>56295.286164999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.637579</v>
+        <v>15.637579000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1537.430000</v>
+        <v>1537.43</v>
       </c>
       <c r="BG16" s="1">
-        <v>-611.086000</v>
+        <v>-611.08600000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>56306.575604</v>
+        <v>56306.575603999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>15.640715</v>
       </c>
       <c r="BK16" s="1">
-        <v>1694.410000</v>
+        <v>1694.41</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1050.490000</v>
+        <v>-1050.49</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>56317.717271</v>
+        <v>56317.717271000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>15.643810</v>
+        <v>15.64381</v>
       </c>
       <c r="BP16" s="1">
-        <v>1992.390000</v>
+        <v>1992.39</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1808.420000</v>
+        <v>-1808.42</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>56328.678467</v>
+        <v>56328.678466999998</v>
       </c>
       <c r="BT16" s="1">
         <v>15.646855</v>
       </c>
       <c r="BU16" s="1">
-        <v>2380.310000</v>
+        <v>2380.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2679.460000</v>
+        <v>-2679.46</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>56339.822472</v>
@@ -4304,75 +4720,75 @@
         <v>15.649951</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2868.680000</v>
+        <v>2868.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3625.410000</v>
+        <v>-3625.41</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>56352.284424</v>
+        <v>56352.284423999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.653412</v>
+        <v>15.653411999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4272.430000</v>
+        <v>4272.43</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5888.480000</v>
+        <v>-5888.48</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>56179.298204</v>
+        <v>56179.298203999999</v>
       </c>
       <c r="B17" s="1">
         <v>15.605361</v>
       </c>
       <c r="C17" s="1">
-        <v>1246.970000</v>
+        <v>1246.97</v>
       </c>
       <c r="D17" s="1">
-        <v>-278.287000</v>
+        <v>-278.28699999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>56189.413119</v>
+        <v>56189.413118999997</v>
       </c>
       <c r="G17" s="1">
-        <v>15.608170</v>
+        <v>15.608169999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.930000</v>
+        <v>1268.93</v>
       </c>
       <c r="I17" s="1">
-        <v>-243.734000</v>
+        <v>-243.73400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>56199.596034</v>
+        <v>56199.596034000002</v>
       </c>
       <c r="L17" s="1">
         <v>15.610999</v>
       </c>
       <c r="M17" s="1">
-        <v>1301.390000</v>
+        <v>1301.3900000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-192.110000</v>
+        <v>-192.11</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>56210.154358</v>
@@ -4381,692 +4797,692 @@
         <v>15.613932</v>
       </c>
       <c r="R17" s="1">
-        <v>1313.860000</v>
+        <v>1313.86</v>
       </c>
       <c r="S17" s="1">
-        <v>-177.625000</v>
+        <v>-177.625</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>56220.617926</v>
+        <v>56220.617925999999</v>
       </c>
       <c r="V17" s="1">
         <v>15.616838</v>
       </c>
       <c r="W17" s="1">
-        <v>1327.810000</v>
+        <v>1327.81</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.203000</v>
+        <v>-167.203</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>56231.155433</v>
       </c>
       <c r="AA17" s="1">
-        <v>15.619765</v>
+        <v>15.619764999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="AC17" s="1">
-        <v>-167.767000</v>
+        <v>-167.767</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>56241.670122</v>
+        <v>56241.670122000003</v>
       </c>
       <c r="AF17" s="1">
         <v>15.622686</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.240000</v>
+        <v>1360.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.445000</v>
+        <v>-178.44499999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>56252.208124</v>
+        <v>56252.208123999997</v>
       </c>
       <c r="AK17" s="1">
         <v>15.625613</v>
       </c>
       <c r="AL17" s="1">
-        <v>1382.140000</v>
+        <v>1382.14</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.176000</v>
+        <v>-209.17599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>56262.823540</v>
+        <v>56262.823539999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>15.628562</v>
+        <v>15.628562000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1404.710000</v>
+        <v>1404.71</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.269000</v>
+        <v>-253.26900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>56273.756817</v>
+        <v>56273.756817000001</v>
       </c>
       <c r="AU17" s="1">
         <v>15.631599</v>
       </c>
       <c r="AV17" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.171000</v>
+        <v>-313.17099999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>56284.658883</v>
+        <v>56284.658882999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>15.634627</v>
       </c>
       <c r="BA17" s="1">
-        <v>1450.020000</v>
+        <v>1450.02</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.962000</v>
+        <v>-364.96199999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>56295.646260</v>
+        <v>56295.646260000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>15.637680</v>
+        <v>15.63768</v>
       </c>
       <c r="BF17" s="1">
-        <v>1537.400000</v>
+        <v>1537.4</v>
       </c>
       <c r="BG17" s="1">
-        <v>-611.088000</v>
+        <v>-611.08799999999997</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>56306.949620</v>
+        <v>56306.949619999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>15.640819</v>
       </c>
       <c r="BK17" s="1">
-        <v>1694.490000</v>
+        <v>1694.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1050.430000</v>
+        <v>-1050.43</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>56318.144293</v>
+        <v>56318.144292999998</v>
       </c>
       <c r="BO17" s="1">
         <v>15.643929</v>
       </c>
       <c r="BP17" s="1">
-        <v>1992.220000</v>
+        <v>1992.22</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1808.390000</v>
+        <v>-1808.39</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>56329.094471</v>
+        <v>56329.094470999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.646971</v>
+        <v>15.646971000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2380.320000</v>
+        <v>2380.3200000000002</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2679.120000</v>
+        <v>-2679.12</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>56340.241064</v>
+        <v>56340.241064000002</v>
       </c>
       <c r="BY17" s="1">
         <v>15.650067</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2868.540000</v>
+        <v>2868.54</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3626.000000</v>
+        <v>-3626</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>56352.803736</v>
+        <v>56352.803736000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.653557</v>
+        <v>15.653556999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4292.370000</v>
+        <v>4292.37</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5893.080000</v>
+        <v>-5893.08</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>56179.640952</v>
+        <v>56179.640952000002</v>
       </c>
       <c r="B18" s="1">
         <v>15.605456</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.630000</v>
+        <v>1246.6300000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-278.166000</v>
+        <v>-278.166</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>56190.106528</v>
+        <v>56190.106527999997</v>
       </c>
       <c r="G18" s="1">
-        <v>15.608363</v>
+        <v>15.608363000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1268.170000</v>
+        <v>1268.17</v>
       </c>
       <c r="I18" s="1">
-        <v>-242.383000</v>
+        <v>-242.38300000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>56199.944213</v>
+        <v>56199.944213000002</v>
       </c>
       <c r="L18" s="1">
         <v>15.611096</v>
       </c>
       <c r="M18" s="1">
-        <v>1301.430000</v>
+        <v>1301.43</v>
       </c>
       <c r="N18" s="1">
-        <v>-192.317000</v>
+        <v>-192.31700000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>56210.505749</v>
+        <v>56210.505749000004</v>
       </c>
       <c r="Q18" s="1">
         <v>15.614029</v>
       </c>
       <c r="R18" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S18" s="1">
-        <v>-177.713000</v>
+        <v>-177.71299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>56220.962646</v>
       </c>
       <c r="V18" s="1">
-        <v>15.616934</v>
+        <v>15.616934000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1327.880000</v>
+        <v>1327.88</v>
       </c>
       <c r="X18" s="1">
-        <v>-167.180000</v>
+        <v>-167.18</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>56231.823580</v>
+        <v>56231.823579999997</v>
       </c>
       <c r="AA18" s="1">
         <v>15.619951</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.450000</v>
+        <v>1346.45</v>
       </c>
       <c r="AC18" s="1">
-        <v>-167.782000</v>
+        <v>-167.78200000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>56242.333801</v>
+        <v>56242.333801000001</v>
       </c>
       <c r="AF18" s="1">
         <v>15.622871</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.390000</v>
+        <v>1360.39</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.489000</v>
+        <v>-178.489</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>56252.594011</v>
+        <v>56252.594011000001</v>
       </c>
       <c r="AK18" s="1">
         <v>15.625721</v>
       </c>
       <c r="AL18" s="1">
-        <v>1382.140000</v>
+        <v>1382.14</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>56263.090350</v>
+        <v>56263.090349999999</v>
       </c>
       <c r="AP18" s="1">
         <v>15.628636</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1404.700000</v>
+        <v>1404.7</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.260000</v>
+        <v>-253.26</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>56274.124351</v>
+        <v>56274.124350999999</v>
       </c>
       <c r="AU18" s="1">
         <v>15.631701</v>
       </c>
       <c r="AV18" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.101000</v>
+        <v>-313.101</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>56285.017986</v>
+        <v>56285.017985999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>15.634727</v>
       </c>
       <c r="BA18" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.955000</v>
+        <v>-364.95499999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>56296.084226</v>
+        <v>56296.084225999999</v>
       </c>
       <c r="BE18" s="1">
         <v>15.637801</v>
       </c>
       <c r="BF18" s="1">
-        <v>1537.390000</v>
+        <v>1537.39</v>
       </c>
       <c r="BG18" s="1">
-        <v>-611.113000</v>
+        <v>-611.11300000000006</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>56307.382626</v>
+        <v>56307.382625999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.640940</v>
+        <v>15.640940000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.350000</v>
+        <v>1694.35</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1050.360000</v>
+        <v>-1050.3599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>56318.536134</v>
+        <v>56318.536134000002</v>
       </c>
       <c r="BO18" s="1">
         <v>15.644038</v>
       </c>
       <c r="BP18" s="1">
-        <v>1992.180000</v>
+        <v>1992.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1808.390000</v>
+        <v>-1808.39</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>56329.508630</v>
+        <v>56329.508629999997</v>
       </c>
       <c r="BT18" s="1">
         <v>15.647086</v>
       </c>
       <c r="BU18" s="1">
-        <v>2380.380000</v>
+        <v>2380.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2679.000000</v>
+        <v>-2679</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>56340.664649</v>
+        <v>56340.664648999998</v>
       </c>
       <c r="BY18" s="1">
         <v>15.650185</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2869.060000</v>
+        <v>2869.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3625.510000</v>
+        <v>-3625.51</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>56353.345895</v>
+        <v>56353.345894999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>15.653707</v>
+        <v>15.653707000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4281.690000</v>
+        <v>4281.6899999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5878.120000</v>
+        <v>-5878.12</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>56180.328892</v>
+        <v>56180.328891999998</v>
       </c>
       <c r="B19" s="1">
-        <v>15.605647</v>
+        <v>15.605646999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.540000</v>
+        <v>1246.54</v>
       </c>
       <c r="D19" s="1">
-        <v>-278.252000</v>
+        <v>-278.25200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>56190.446815</v>
+        <v>56190.446815000003</v>
       </c>
       <c r="G19" s="1">
         <v>15.608457</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.380000</v>
+        <v>1268.3800000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-242.597000</v>
+        <v>-242.59700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>56200.288433</v>
+        <v>56200.288433000002</v>
       </c>
       <c r="L19" s="1">
         <v>15.611191</v>
       </c>
       <c r="M19" s="1">
-        <v>1301.470000</v>
+        <v>1301.47</v>
       </c>
       <c r="N19" s="1">
-        <v>-192.431000</v>
+        <v>-192.43100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>56210.851731</v>
+        <v>56210.851731000002</v>
       </c>
       <c r="Q19" s="1">
         <v>15.614125</v>
       </c>
       <c r="R19" s="1">
-        <v>1313.820000</v>
+        <v>1313.82</v>
       </c>
       <c r="S19" s="1">
-        <v>-177.725000</v>
+        <v>-177.72499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>56221.629765</v>
+        <v>56221.629764999998</v>
       </c>
       <c r="V19" s="1">
-        <v>15.617119</v>
+        <v>15.617119000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.060000</v>
+        <v>1328.06</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.381000</v>
+        <v>-167.381</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>56232.199510</v>
+        <v>56232.199509999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.620055</v>
+        <v>15.620055000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.720000</v>
+        <v>1346.72</v>
       </c>
       <c r="AC19" s="1">
-        <v>-167.890000</v>
+        <v>-167.89</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>56242.703784</v>
+        <v>56242.703783999998</v>
       </c>
       <c r="AF19" s="1">
         <v>15.622973</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.430000</v>
+        <v>1360.43</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.471000</v>
+        <v>-178.471</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>56252.942204</v>
+        <v>56252.942203999999</v>
       </c>
       <c r="AK19" s="1">
         <v>15.625817</v>
       </c>
       <c r="AL19" s="1">
-        <v>1382.110000</v>
+        <v>1382.11</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.146000</v>
+        <v>-209.14599999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>56263.448989</v>
+        <v>56263.448988999997</v>
       </c>
       <c r="AP19" s="1">
         <v>15.628736</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1404.670000</v>
+        <v>1404.67</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.276000</v>
+        <v>-253.27600000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>56274.487455</v>
+        <v>56274.487455000002</v>
       </c>
       <c r="AU19" s="1">
         <v>15.631802</v>
       </c>
       <c r="AV19" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>56285.444048</v>
+        <v>56285.444047999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>15.634846</v>
       </c>
       <c r="BA19" s="1">
-        <v>1450.020000</v>
+        <v>1450.02</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.958000</v>
+        <v>-364.95800000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>56296.366451</v>
+        <v>56296.366451000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.637880</v>
+        <v>15.637879999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1537.400000</v>
+        <v>1537.4</v>
       </c>
       <c r="BG19" s="1">
-        <v>-611.055000</v>
+        <v>-611.05499999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>56307.720867</v>
+        <v>56307.720867000004</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.641034</v>
+        <v>15.641033999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1694.440000</v>
+        <v>1694.44</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1050.400000</v>
+        <v>-1050.4000000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>56318.959717</v>
+        <v>56318.959716999998</v>
       </c>
       <c r="BO19" s="1">
         <v>15.644155</v>
       </c>
       <c r="BP19" s="1">
-        <v>1992.190000</v>
+        <v>1992.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1808.380000</v>
+        <v>-1808.38</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>56329.928430</v>
+        <v>56329.92843</v>
       </c>
       <c r="BT19" s="1">
         <v>15.647202</v>
       </c>
       <c r="BU19" s="1">
-        <v>2380.290000</v>
+        <v>2380.29</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2678.480000</v>
+        <v>-2678.48</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>56341.087239</v>
@@ -5075,165 +5491,165 @@
         <v>15.650302</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2869.270000</v>
+        <v>2869.27</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3625.260000</v>
+        <v>-3625.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>56353.883525</v>
+        <v>56353.883524999997</v>
       </c>
       <c r="CD19" s="1">
         <v>15.653857</v>
       </c>
       <c r="CE19" s="1">
-        <v>4282.850000</v>
+        <v>4282.8500000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5898.720000</v>
+        <v>-5898.72</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>56180.663691</v>
+        <v>56180.663691000002</v>
       </c>
       <c r="B20" s="1">
-        <v>15.605740</v>
+        <v>15.605740000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.840000</v>
+        <v>1246.8399999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-277.943000</v>
+        <v>-277.94299999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>56190.798479</v>
+        <v>56190.798478999997</v>
       </c>
       <c r="G20" s="1">
-        <v>15.608555</v>
+        <v>15.608555000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.780000</v>
+        <v>1267.78</v>
       </c>
       <c r="I20" s="1">
-        <v>-243.949000</v>
+        <v>-243.94900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>56200.954059</v>
+        <v>56200.954059000003</v>
       </c>
       <c r="L20" s="1">
         <v>15.611376</v>
       </c>
       <c r="M20" s="1">
-        <v>1301.420000</v>
+        <v>1301.42</v>
       </c>
       <c r="N20" s="1">
-        <v>-192.254000</v>
+        <v>-192.25399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>56211.520343</v>
+        <v>56211.520342999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>15.614311</v>
+        <v>15.614311000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1313.680000</v>
+        <v>1313.68</v>
       </c>
       <c r="S20" s="1">
-        <v>-177.722000</v>
+        <v>-177.72200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>56222.000277</v>
+        <v>56222.000276999999</v>
       </c>
       <c r="V20" s="1">
         <v>15.617222</v>
       </c>
       <c r="W20" s="1">
-        <v>1327.960000</v>
+        <v>1327.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-167.214000</v>
+        <v>-167.214</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>56232.548726</v>
+        <v>56232.548726000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.620152</v>
+        <v>15.620151999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.560000</v>
+        <v>1346.56</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.697000</v>
+        <v>-167.697</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>56243.052968</v>
+        <v>56243.052968000004</v>
       </c>
       <c r="AF20" s="1">
-        <v>15.623070</v>
+        <v>15.62307</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.400000</v>
+        <v>1360.4</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.439000</v>
+        <v>-178.43899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>56253.289402</v>
+        <v>56253.289402000002</v>
       </c>
       <c r="AK20" s="1">
         <v>15.625914</v>
       </c>
       <c r="AL20" s="1">
-        <v>1382.110000</v>
+        <v>1382.11</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.149000</v>
+        <v>-209.149</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>56263.894365</v>
       </c>
       <c r="AP20" s="1">
-        <v>15.628860</v>
+        <v>15.62886</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1404.650000</v>
+        <v>1404.65</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.272000</v>
+        <v>-253.27199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>56274.914975</v>
@@ -5242,43 +5658,43 @@
         <v>15.631921</v>
       </c>
       <c r="AV20" s="1">
-        <v>1430.100000</v>
+        <v>1430.1</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>56285.735727</v>
+        <v>56285.735726999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.634927</v>
+        <v>15.634926999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.971000</v>
+        <v>-364.971</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>56296.728529</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.637980</v>
+        <v>15.637980000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1537.400000</v>
+        <v>1537.4</v>
       </c>
       <c r="BG20" s="1">
-        <v>-611.116000</v>
+        <v>-611.11599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>56308.095384</v>
@@ -5287,120 +5703,120 @@
         <v>15.641138</v>
       </c>
       <c r="BK20" s="1">
-        <v>1694.360000</v>
+        <v>1694.36</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1050.300000</v>
+        <v>-1050.3</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>56319.358499</v>
+        <v>56319.358499000002</v>
       </c>
       <c r="BO20" s="1">
         <v>15.644266</v>
       </c>
       <c r="BP20" s="1">
-        <v>1992.300000</v>
+        <v>1992.3</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1808.320000</v>
+        <v>-1808.32</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>56330.758084</v>
+        <v>56330.758084000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.647433</v>
+        <v>15.647432999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2380.480000</v>
+        <v>2380.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2678.290000</v>
+        <v>-2678.29</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>56341.532151</v>
+        <v>56341.532150999999</v>
       </c>
       <c r="BY20" s="1">
         <v>15.650426</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2868.360000</v>
+        <v>2868.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3624.750000</v>
+        <v>-3624.75</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>56354.424165</v>
+        <v>56354.424164999997</v>
       </c>
       <c r="CD20" s="1">
         <v>15.654007</v>
       </c>
       <c r="CE20" s="1">
-        <v>4294.070000</v>
+        <v>4294.07</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5880.460000</v>
+        <v>-5880.46</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>56181.319897</v>
+        <v>56181.319897000001</v>
       </c>
       <c r="B21" s="1">
         <v>15.605922</v>
       </c>
       <c r="C21" s="1">
-        <v>1246.680000</v>
+        <v>1246.68</v>
       </c>
       <c r="D21" s="1">
-        <v>-278.233000</v>
+        <v>-278.233</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>56191.460110</v>
+        <v>56191.46011</v>
       </c>
       <c r="G21" s="1">
         <v>15.608739</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.740000</v>
+        <v>1268.74</v>
       </c>
       <c r="I21" s="1">
-        <v>-242.563000</v>
+        <v>-242.56299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>56201.328016</v>
+        <v>56201.328015999999</v>
       </c>
       <c r="L21" s="1">
-        <v>15.611480</v>
+        <v>15.61148</v>
       </c>
       <c r="M21" s="1">
-        <v>1301.290000</v>
+        <v>1301.29</v>
       </c>
       <c r="N21" s="1">
-        <v>-192.255000</v>
+        <v>-192.255</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>56211.897265</v>
@@ -5409,58 +5825,58 @@
         <v>15.614416</v>
       </c>
       <c r="R21" s="1">
-        <v>1313.700000</v>
+        <v>1313.7</v>
       </c>
       <c r="S21" s="1">
-        <v>-177.562000</v>
+        <v>-177.56200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>56222.348505</v>
+        <v>56222.348505000002</v>
       </c>
       <c r="V21" s="1">
         <v>15.617319</v>
       </c>
       <c r="W21" s="1">
-        <v>1327.950000</v>
+        <v>1327.95</v>
       </c>
       <c r="X21" s="1">
-        <v>-167.276000</v>
+        <v>-167.27600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>56232.894902</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.620249</v>
+        <v>15.620248999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.600000</v>
+        <v>1346.6</v>
       </c>
       <c r="AC21" s="1">
-        <v>-167.697000</v>
+        <v>-167.697</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>56243.394713</v>
+        <v>56243.394713000002</v>
       </c>
       <c r="AF21" s="1">
         <v>15.623165</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.320000</v>
+        <v>1360.32</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.456000</v>
+        <v>-178.45599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>56253.719932</v>
@@ -5469,43 +5885,43 @@
         <v>15.626033</v>
       </c>
       <c r="AL21" s="1">
-        <v>1382.160000</v>
+        <v>1382.16</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.151000</v>
+        <v>-209.15100000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>56264.163229</v>
+        <v>56264.163228999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.628934</v>
+        <v>15.628933999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.274000</v>
+        <v>-253.274</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>56275.212574</v>
+        <v>56275.212573999997</v>
       </c>
       <c r="AU21" s="1">
-        <v>15.632003</v>
+        <v>15.632002999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1430.080000</v>
+        <v>1430.08</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>56286.092847</v>
@@ -5514,769 +5930,769 @@
         <v>15.635026</v>
       </c>
       <c r="BA21" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.968000</v>
+        <v>-364.96800000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>56297.091635</v>
+        <v>56297.091634999997</v>
       </c>
       <c r="BE21" s="1">
         <v>15.638081</v>
       </c>
       <c r="BF21" s="1">
-        <v>1537.360000</v>
+        <v>1537.36</v>
       </c>
       <c r="BG21" s="1">
-        <v>-611.068000</v>
+        <v>-611.06799999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>56308.469366</v>
+        <v>56308.469365999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>15.641241</v>
+        <v>15.641241000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1694.480000</v>
+        <v>1694.48</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1050.310000</v>
+        <v>-1050.31</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>56319.797956</v>
+        <v>56319.797956000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.644388</v>
+        <v>15.644387999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1992.150000</v>
+        <v>1992.15</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1808.360000</v>
+        <v>-1808.36</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>56331.188084</v>
+        <v>56331.188084000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.647552</v>
+        <v>15.647551999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2380.280000</v>
+        <v>2380.2800000000002</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2677.960000</v>
+        <v>-2677.96</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>56341.953751</v>
+        <v>56341.953751000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>15.650543</v>
+        <v>15.650543000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2868.390000</v>
+        <v>2868.39</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3625.130000</v>
+        <v>-3625.13</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>56354.959844</v>
+        <v>56354.959843999997</v>
       </c>
       <c r="CD21" s="1">
         <v>15.654156</v>
       </c>
       <c r="CE21" s="1">
-        <v>4273.290000</v>
+        <v>4273.29</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5890.850000</v>
+        <v>-5890.85</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>56181.690906</v>
+        <v>56181.690906000003</v>
       </c>
       <c r="B22" s="1">
-        <v>15.606025</v>
+        <v>15.606025000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1246.640000</v>
+        <v>1246.6400000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-278.577000</v>
+        <v>-278.577</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>56191.833100</v>
+        <v>56191.833100000003</v>
       </c>
       <c r="G22" s="1">
         <v>15.608843</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.090000</v>
+        <v>1269.0899999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-243.169000</v>
+        <v>-243.16900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>56201.673231</v>
+        <v>56201.673231000001</v>
       </c>
       <c r="L22" s="1">
-        <v>15.611576</v>
+        <v>15.611575999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1301.520000</v>
+        <v>1301.52</v>
       </c>
       <c r="N22" s="1">
-        <v>-192.361000</v>
+        <v>-192.36099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>56212.251409</v>
+        <v>56212.251408999997</v>
       </c>
       <c r="Q22" s="1">
         <v>15.614514</v>
       </c>
       <c r="R22" s="1">
-        <v>1313.790000</v>
+        <v>1313.79</v>
       </c>
       <c r="S22" s="1">
-        <v>-177.608000</v>
+        <v>-177.608</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>56222.691738</v>
+        <v>56222.691738000001</v>
       </c>
       <c r="V22" s="1">
         <v>15.617414</v>
       </c>
       <c r="W22" s="1">
-        <v>1327.910000</v>
+        <v>1327.91</v>
       </c>
       <c r="X22" s="1">
-        <v>-167.371000</v>
+        <v>-167.37100000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>56233.320468</v>
+        <v>56233.320467999998</v>
       </c>
       <c r="AA22" s="1">
         <v>15.620367</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.640000</v>
+        <v>1346.64</v>
       </c>
       <c r="AC22" s="1">
-        <v>-167.716000</v>
+        <v>-167.71600000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>56243.824247</v>
+        <v>56243.824246999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.623285</v>
+        <v>15.623284999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.504000</v>
+        <v>-178.50399999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>56253.992731</v>
+        <v>56253.992730999998</v>
       </c>
       <c r="AK22" s="1">
         <v>15.626109</v>
       </c>
       <c r="AL22" s="1">
-        <v>1382.140000</v>
+        <v>1382.14</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.142000</v>
+        <v>-209.142</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>56264.530237</v>
+        <v>56264.530236999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.629036</v>
+        <v>15.629035999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1404.690000</v>
+        <v>1404.69</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.239000</v>
+        <v>-253.239</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>56275.580109</v>
+        <v>56275.580109000002</v>
       </c>
       <c r="AU22" s="1">
         <v>15.632106</v>
       </c>
       <c r="AV22" s="1">
-        <v>1430.100000</v>
+        <v>1430.1</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.152000</v>
+        <v>-313.15199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>56286.454430</v>
+        <v>56286.454429999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.635126</v>
       </c>
       <c r="BA22" s="1">
-        <v>1450.010000</v>
+        <v>1450.01</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.958000</v>
+        <v>-364.95800000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>56297.823698</v>
       </c>
       <c r="BE22" s="1">
-        <v>15.638284</v>
+        <v>15.638284000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1537.410000</v>
+        <v>1537.41</v>
       </c>
       <c r="BG22" s="1">
-        <v>-611.046000</v>
+        <v>-611.04600000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>56309.221761</v>
+        <v>56309.221761000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>15.641450</v>
+        <v>15.641450000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1694.320000</v>
+        <v>1694.32</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1050.320000</v>
+        <v>-1050.32</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>56320.174455</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.644493</v>
+        <v>15.644493000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1992.280000</v>
+        <v>1992.28</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1808.250000</v>
+        <v>-1808.25</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>56331.601747</v>
+        <v>56331.601747000001</v>
       </c>
       <c r="BT22" s="1">
         <v>15.647667</v>
       </c>
       <c r="BU22" s="1">
-        <v>2380.590000</v>
+        <v>2380.59</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2677.960000</v>
+        <v>-2677.96</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>56342.376342</v>
+        <v>56342.376342000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.650660</v>
+        <v>15.65066</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2868.250000</v>
+        <v>2868.25</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3625.290000</v>
+        <v>-3625.29</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>56355.815976</v>
+        <v>56355.815975999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>15.654393</v>
+        <v>15.654393000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4286.140000</v>
+        <v>4286.1400000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5876.060000</v>
+        <v>-5876.06</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>56182.036616</v>
+        <v>56182.036615999998</v>
       </c>
       <c r="B23" s="1">
         <v>15.606121</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.890000</v>
+        <v>1246.8900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-278.209000</v>
+        <v>-278.209</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>56192.178847</v>
+        <v>56192.178847000003</v>
       </c>
       <c r="G23" s="1">
-        <v>15.608939</v>
+        <v>15.608938999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.980000</v>
+        <v>1267.98</v>
       </c>
       <c r="I23" s="1">
-        <v>-243.087000</v>
+        <v>-243.08699999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>56202.021920</v>
+        <v>56202.021919999999</v>
       </c>
       <c r="L23" s="1">
         <v>15.611673</v>
       </c>
       <c r="M23" s="1">
-        <v>1301.250000</v>
+        <v>1301.25</v>
       </c>
       <c r="N23" s="1">
-        <v>-192.196000</v>
+        <v>-192.196</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>56212.601089</v>
+        <v>56212.601089000003</v>
       </c>
       <c r="Q23" s="1">
         <v>15.614611</v>
       </c>
       <c r="R23" s="1">
-        <v>1313.840000</v>
+        <v>1313.84</v>
       </c>
       <c r="S23" s="1">
-        <v>-177.699000</v>
+        <v>-177.69900000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>56223.126194</v>
+        <v>56223.126193999997</v>
       </c>
       <c r="V23" s="1">
         <v>15.617535</v>
       </c>
       <c r="W23" s="1">
-        <v>1327.920000</v>
+        <v>1327.92</v>
       </c>
       <c r="X23" s="1">
-        <v>-167.293000</v>
+        <v>-167.29300000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>56233.610630</v>
+        <v>56233.610630000003</v>
       </c>
       <c r="AA23" s="1">
         <v>15.620447</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="AC23" s="1">
-        <v>-167.721000</v>
+        <v>-167.721</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>56244.092087</v>
+        <v>56244.092086999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.623359</v>
+        <v>15.623359000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.500000</v>
+        <v>1360.5</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.526000</v>
+        <v>-178.52600000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>56254.344889</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.626207</v>
+        <v>15.626207000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1382.140000</v>
+        <v>1382.14</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.161000</v>
+        <v>-209.161</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>56264.888347</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.629136</v>
+        <v>15.629136000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1404.650000</v>
+        <v>1404.65</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.204000</v>
+        <v>-253.20400000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>56275.944669</v>
+        <v>56275.944668999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>15.632207</v>
+        <v>15.632206999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1430.030000</v>
+        <v>1430.03</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.114000</v>
+        <v>-313.11399999999998</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>56287.175582</v>
+        <v>56287.175582000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>15.635327</v>
       </c>
       <c r="BA23" s="1">
-        <v>1449.990000</v>
+        <v>1449.99</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.930000</v>
+        <v>-364.93</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>56298.173871</v>
+        <v>56298.173870999999</v>
       </c>
       <c r="BE23" s="1">
         <v>15.638382</v>
       </c>
       <c r="BF23" s="1">
-        <v>1537.340000</v>
+        <v>1537.34</v>
       </c>
       <c r="BG23" s="1">
-        <v>-611.064000</v>
+        <v>-611.06399999999996</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>56309.595775</v>
+        <v>56309.595775000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>15.641554</v>
+        <v>15.641553999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.430000</v>
+        <v>1694.43</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1050.330000</v>
+        <v>-1050.33</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>56320.596017</v>
+        <v>56320.596017000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.644610</v>
+        <v>15.64461</v>
       </c>
       <c r="BP23" s="1">
-        <v>1992.170000</v>
+        <v>1992.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1808.150000</v>
+        <v>-1808.15</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>56332.330904</v>
+        <v>56332.330904000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.647870</v>
+        <v>15.647869999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2380.550000</v>
+        <v>2380.5500000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2677.810000</v>
+        <v>-2677.81</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>56343.143892</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.650873</v>
+        <v>15.650873000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2868.740000</v>
+        <v>2868.74</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3625.030000</v>
+        <v>-3625.03</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>56356.040628</v>
+        <v>56356.040628000002</v>
       </c>
       <c r="CD23" s="1">
         <v>15.654456</v>
       </c>
       <c r="CE23" s="1">
-        <v>4286.990000</v>
+        <v>4286.99</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5878.240000</v>
+        <v>-5878.24</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>56182.379881</v>
+        <v>56182.379881000001</v>
       </c>
       <c r="B24" s="1">
-        <v>15.606217</v>
+        <v>15.606216999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.800000</v>
+        <v>1246.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-277.984000</v>
+        <v>-277.98399999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>56192.523062</v>
       </c>
       <c r="G24" s="1">
-        <v>15.609034</v>
+        <v>15.609033999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.890000</v>
+        <v>1267.8900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-242.662000</v>
+        <v>-242.66200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>56202.450463</v>
+        <v>56202.450463000001</v>
       </c>
       <c r="L24" s="1">
-        <v>15.611792</v>
+        <v>15.611791999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1301.380000</v>
+        <v>1301.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-192.190000</v>
+        <v>-192.19</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>56213.063373</v>
+        <v>56213.063372999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>15.614740</v>
+        <v>15.614739999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1313.820000</v>
+        <v>1313.82</v>
       </c>
       <c r="S24" s="1">
-        <v>-177.713000</v>
+        <v>-177.71299999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>56223.389570</v>
+        <v>56223.389569999999</v>
       </c>
       <c r="V24" s="1">
-        <v>15.617608</v>
+        <v>15.617608000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1327.740000</v>
+        <v>1327.74</v>
       </c>
       <c r="X24" s="1">
-        <v>-167.278000</v>
+        <v>-167.27799999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>56233.958822</v>
+        <v>56233.958822000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.620544</v>
+        <v>15.620544000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.610000</v>
+        <v>1346.61</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.605000</v>
+        <v>-167.60499999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>56244.434359</v>
+        <v>56244.434358999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>15.623454</v>
+        <v>15.623454000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.480000</v>
+        <v>1360.48</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.517000</v>
+        <v>-178.517</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>56254.693080</v>
+        <v>56254.693079999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.626304</v>
+        <v>15.626303999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1382.120000</v>
+        <v>1382.12</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.148000</v>
+        <v>-209.148</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>56265.609532</v>
+        <v>56265.609532000002</v>
       </c>
       <c r="AP24" s="1">
         <v>15.629336</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1404.670000</v>
+        <v>1404.67</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.291000</v>
+        <v>-253.291</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>56276.674781</v>
+        <v>56276.674781000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>15.632410</v>
+        <v>15.63241</v>
       </c>
       <c r="AV24" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.145000</v>
+        <v>-313.14499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>56287.554525</v>
@@ -6285,165 +6701,165 @@
         <v>15.635432</v>
       </c>
       <c r="BA24" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.952000</v>
+        <v>-364.952</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>56298.533968</v>
+        <v>56298.533968000003</v>
       </c>
       <c r="BE24" s="1">
         <v>15.638482</v>
       </c>
       <c r="BF24" s="1">
-        <v>1537.370000</v>
+        <v>1537.37</v>
       </c>
       <c r="BG24" s="1">
-        <v>-611.031000</v>
+        <v>-611.03099999999995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>56309.972241</v>
+        <v>56309.972241000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.641659</v>
+        <v>15.641659000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1694.460000</v>
+        <v>1694.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1050.350000</v>
+        <v>-1050.3499999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>56321.317202</v>
+        <v>56321.317201999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.644810</v>
+        <v>15.64481</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.020000</v>
+        <v>1992.02</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1808.170000</v>
+        <v>-1808.17</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>56332.455362</v>
+        <v>56332.455362000001</v>
       </c>
       <c r="BT24" s="1">
         <v>15.647904</v>
       </c>
       <c r="BU24" s="1">
-        <v>2380.640000</v>
+        <v>2380.64</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2677.600000</v>
+        <v>-2677.6</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>56343.258724</v>
+        <v>56343.258723999999</v>
       </c>
       <c r="BY24" s="1">
         <v>15.650905</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2868.560000</v>
+        <v>2868.56</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3624.820000</v>
+        <v>-3624.82</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>56356.563437</v>
+        <v>56356.563436999997</v>
       </c>
       <c r="CD24" s="1">
         <v>15.654601</v>
       </c>
       <c r="CE24" s="1">
-        <v>4273.110000</v>
+        <v>4273.1099999999997</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5883.980000</v>
+        <v>-5883.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>56182.805417</v>
+        <v>56182.805417000003</v>
       </c>
       <c r="B25" s="1">
         <v>15.606335</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.510000</v>
+        <v>1246.51</v>
       </c>
       <c r="D25" s="1">
-        <v>-277.986000</v>
+        <v>-277.98599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>56192.953066</v>
+        <v>56192.953066000002</v>
       </c>
       <c r="G25" s="1">
         <v>15.609154</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.120000</v>
+        <v>1268.1199999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-243.111000</v>
+        <v>-243.11099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>56202.726269</v>
+        <v>56202.726268999999</v>
       </c>
       <c r="L25" s="1">
-        <v>15.611868</v>
+        <v>15.611867999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1301.320000</v>
+        <v>1301.32</v>
       </c>
       <c r="N25" s="1">
-        <v>-192.062000</v>
+        <v>-192.06200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>56213.304415</v>
+        <v>56213.304414999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.614807</v>
+        <v>15.614807000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1313.800000</v>
+        <v>1313.8</v>
       </c>
       <c r="S25" s="1">
-        <v>-177.706000</v>
+        <v>-177.70599999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>56223.733795</v>
@@ -6452,133 +6868,133 @@
         <v>15.617704</v>
       </c>
       <c r="W25" s="1">
-        <v>1327.900000</v>
+        <v>1327.9</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.638000</v>
+        <v>-167.63800000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>56234.305523</v>
+        <v>56234.305523000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>15.620640</v>
+        <v>15.62064</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.500000</v>
+        <v>1346.5</v>
       </c>
       <c r="AC25" s="1">
-        <v>-167.785000</v>
+        <v>-167.785</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>56244.777063</v>
+        <v>56244.777063000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.623549</v>
+        <v>15.623549000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.450000</v>
+        <v>1360.45</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.481000</v>
+        <v>-178.48099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>56255.392937</v>
+        <v>56255.392936999997</v>
       </c>
       <c r="AK25" s="1">
         <v>15.626498</v>
       </c>
       <c r="AL25" s="1">
-        <v>1382.170000</v>
+        <v>1382.17</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.148000</v>
+        <v>-209.148</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>56265.969625</v>
+        <v>56265.969624999998</v>
       </c>
       <c r="AP25" s="1">
         <v>15.629436</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1404.680000</v>
+        <v>1404.68</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.219000</v>
+        <v>-253.21899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>56277.038854</v>
+        <v>56277.038853999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.632511</v>
+        <v>15.632510999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1430.090000</v>
+        <v>1430.09</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.146000</v>
+        <v>-313.14600000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>56287.929507</v>
+        <v>56287.929507000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.635536</v>
       </c>
       <c r="BA25" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.966000</v>
+        <v>-364.96600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>56299.216959</v>
+        <v>56299.216958999998</v>
       </c>
       <c r="BE25" s="1">
         <v>15.638671</v>
       </c>
       <c r="BF25" s="1">
-        <v>1537.410000</v>
+        <v>1537.41</v>
       </c>
       <c r="BG25" s="1">
-        <v>-611.027000</v>
+        <v>-611.02700000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>56310.675039</v>
+        <v>56310.675039000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.641854</v>
       </c>
       <c r="BK25" s="1">
-        <v>1694.400000</v>
+        <v>1694.4</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1050.290000</v>
+        <v>-1050.29</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>56321.443217</v>
@@ -6587,317 +7003,318 @@
         <v>15.644845</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.230000</v>
+        <v>1992.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1808.220000</v>
+        <v>-1808.22</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>56332.872001</v>
+        <v>56332.872001000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.648020</v>
+        <v>15.648020000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2380.620000</v>
+        <v>2380.62</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2677.380000</v>
+        <v>-2677.38</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>56343.694213</v>
+        <v>56343.694213000002</v>
       </c>
       <c r="BY25" s="1">
         <v>15.651026</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2867.560000</v>
+        <v>2867.56</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3624.900000</v>
+        <v>-3624.9</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>56357.078755</v>
+        <v>56357.078755000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>15.654744</v>
+        <v>15.654744000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.740000</v>
+        <v>4275.74</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5878.040000</v>
+        <v>-5878.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>56183.078713</v>
+        <v>56183.078713000003</v>
       </c>
       <c r="B26" s="1">
         <v>15.606411</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.950000</v>
+        <v>1246.95</v>
       </c>
       <c r="D26" s="1">
-        <v>-278.288000</v>
+        <v>-278.28800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>56193.210504</v>
+        <v>56193.210504000002</v>
       </c>
       <c r="G26" s="1">
         <v>15.609225</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.100000</v>
+        <v>1268.0999999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-243.475000</v>
+        <v>-243.47499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>56203.071950</v>
+        <v>56203.071949999998</v>
       </c>
       <c r="L26" s="1">
         <v>15.611964</v>
       </c>
       <c r="M26" s="1">
-        <v>1301.450000</v>
+        <v>1301.45</v>
       </c>
       <c r="N26" s="1">
-        <v>-192.305000</v>
+        <v>-192.30500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>56213.652607</v>
+        <v>56213.652607000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>15.614904</v>
+        <v>15.614903999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1313.700000</v>
+        <v>1313.7</v>
       </c>
       <c r="S26" s="1">
-        <v>-177.642000</v>
+        <v>-177.642</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>56224.075043</v>
+        <v>56224.075042999997</v>
       </c>
       <c r="V26" s="1">
         <v>15.617799</v>
       </c>
       <c r="W26" s="1">
-        <v>1327.830000</v>
+        <v>1327.83</v>
       </c>
       <c r="X26" s="1">
-        <v>-167.420000</v>
+        <v>-167.42</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>56235.005414</v>
+        <v>56235.005413999999</v>
       </c>
       <c r="AA26" s="1">
         <v>15.620835</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.640000</v>
+        <v>1346.64</v>
       </c>
       <c r="AC26" s="1">
-        <v>-167.779000</v>
+        <v>-167.779</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>56245.466997</v>
+        <v>56245.466997000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.623741</v>
+        <v>15.623741000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.420000</v>
+        <v>1360.42</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.478000</v>
+        <v>-178.47800000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>56255.741623</v>
+        <v>56255.741623000002</v>
       </c>
       <c r="AK26" s="1">
         <v>15.626595</v>
       </c>
       <c r="AL26" s="1">
-        <v>1382.110000</v>
+        <v>1382.11</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.164000</v>
+        <v>-209.16399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>56266.329225</v>
+        <v>56266.329225000001</v>
       </c>
       <c r="AP26" s="1">
         <v>15.629536</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1404.660000</v>
+        <v>1404.66</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.254000</v>
+        <v>-253.25399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>56277.403404</v>
+        <v>56277.403403999997</v>
       </c>
       <c r="AU26" s="1">
         <v>15.632612</v>
       </c>
       <c r="AV26" s="1">
-        <v>1430.070000</v>
+        <v>1430.07</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.124000</v>
+        <v>-313.12400000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>56288.600091</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.635722</v>
+        <v>15.635721999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1450.000000</v>
+        <v>1450</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.979000</v>
+        <v>-364.97899999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>56299.639551</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.638789</v>
+        <v>15.638788999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1537.360000</v>
+        <v>1537.36</v>
       </c>
       <c r="BG26" s="1">
-        <v>-611.032000</v>
+        <v>-611.03200000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>56311.133839</v>
+        <v>56311.133839000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>15.641982</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.290000</v>
+        <v>1694.29</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1050.240000</v>
+        <v>-1050.24</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>56321.836545</v>
+        <v>56321.836544999998</v>
       </c>
       <c r="BO26" s="1">
         <v>15.644955</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.100000</v>
+        <v>1992.1</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1808.270000</v>
+        <v>-1808.27</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>56333.289665</v>
+        <v>56333.289664999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>15.648136</v>
+        <v>15.648135999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2381.080000</v>
+        <v>2381.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2677.290000</v>
+        <v>-2677.29</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>56344.293714</v>
+        <v>56344.293713999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.651193</v>
+        <v>15.651192999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.580000</v>
+        <v>2867.58</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3625.140000</v>
+        <v>-3625.14</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>56357.640753</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.654900</v>
+        <v>15.6549</v>
       </c>
       <c r="CE26" s="1">
-        <v>4288.390000</v>
+        <v>4288.3900000000003</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5878.240000</v>
+        <v>-5878.24</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>